--- a/exp2/case03/report/motivation/interest-enjoyment/MeasurementAnovaAnalysis.xlsx
+++ b/exp2/case03/report/motivation/interest-enjoyment/MeasurementAnovaAnalysis.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2425" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2405" uniqueCount="135">
   <si>
     <t>Summary of ANOVA for Interest/Enjoyment</t>
   </si>
@@ -402,9 +402,6 @@
     <t>Mercenaries</t>
   </si>
   <si>
-    <t>Grupo6</t>
-  </si>
-  <si>
     <t>Vikings</t>
   </si>
   <si>
@@ -424,9 +421,6 @@
   </si>
   <si>
     <t>Student's t-Test for Interest/Enjoyment in Type:CLRole between ont-gamified.Apprentice:w/o-gamified.Apprentice</t>
-  </si>
-  <si>
-    <t>small</t>
   </si>
   <si>
     <t>Student's t-Test for Interest/Enjoyment in Type:CLRole between ont-gamified.Apprentice:w/o-gamified.Master</t>
@@ -9294,19 +9288,19 @@
         <v>1.0</v>
       </c>
       <c r="C6" t="n" s="32">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="D6" t="n" s="33">
-        <v>1.719004880788528</v>
+        <v>1.392418588873617</v>
       </c>
       <c r="E6" t="n" s="34">
-        <v>0.1839109369860734</v>
+        <v>0.567593744205905</v>
       </c>
       <c r="F6" t="n" s="35">
-        <v>0.003593492741999318</v>
+        <v>0.011013239081426507</v>
       </c>
       <c r="G6" t="n" s="36">
-        <v>0.6702784982278827</v>
+        <v>0.4556284711733736</v>
       </c>
     </row>
     <row r="7">
@@ -9317,19 +9311,19 @@
         <v>1.0</v>
       </c>
       <c r="C7" t="n" s="32">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="D7" t="n" s="33">
-        <v>1.719004880788528</v>
+        <v>1.392418588873617</v>
       </c>
       <c r="E7" t="n" s="34">
-        <v>9.43725681952052</v>
+        <v>9.747960986032485</v>
       </c>
       <c r="F7" t="n" s="35">
-        <v>0.1850625038128058</v>
+        <v>0.1912497039034679</v>
       </c>
       <c r="G7" t="n" s="36">
-        <v>0.0037680821784550154</v>
+        <v>0.00332998652390231</v>
       </c>
     </row>
     <row r="8">
@@ -9340,19 +9334,19 @@
         <v>1.0</v>
       </c>
       <c r="C8" t="n" s="32">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="D8" t="n" s="33">
-        <v>1.719004880788528</v>
+        <v>1.392418588873617</v>
       </c>
       <c r="E8" t="n" s="34">
-        <v>0.5577131235344098</v>
+        <v>1.2218485722228847</v>
       </c>
       <c r="F8" t="n" s="35">
-        <v>0.010936630106012361</v>
+        <v>0.023972005836639134</v>
       </c>
       <c r="G8" t="n" s="36">
-        <v>0.45944446364238356</v>
+        <v>0.27560262541594405</v>
       </c>
     </row>
     <row r="9">
@@ -9390,16 +9384,16 @@
         <v>15</v>
       </c>
       <c r="B13" t="n" s="55">
-        <v>2.993240164365801</v>
+        <v>4.212992224997542</v>
       </c>
       <c r="C13" t="n" s="56">
         <v>1.0</v>
       </c>
       <c r="D13" t="n" s="57">
-        <v>1.7412633307898258</v>
+        <v>3.0256650253467225</v>
       </c>
       <c r="E13" t="n" s="58">
-        <v>0.19430025375181867</v>
+        <v>0.08964775457282059</v>
       </c>
     </row>
     <row r="14">
@@ -9407,16 +9401,16 @@
         <v>9</v>
       </c>
       <c r="B14" t="n" s="55">
-        <v>0.3161437983094544</v>
+        <v>0.7903280803606805</v>
       </c>
       <c r="C14" t="n" s="56">
         <v>1.0</v>
       </c>
       <c r="D14" t="n" s="57">
-        <v>0.1839109369860734</v>
+        <v>0.567593744205905</v>
       </c>
       <c r="E14" t="n" s="58">
-        <v>0.6702784982278827</v>
+        <v>0.4556284711733736</v>
       </c>
     </row>
     <row r="15">
@@ -9424,16 +9418,16 @@
         <v>10</v>
       </c>
       <c r="B15" t="n" s="55">
-        <v>16.222690534010596</v>
+        <v>13.57324208056643</v>
       </c>
       <c r="C15" t="n" s="56">
         <v>1.0</v>
       </c>
       <c r="D15" t="n" s="57">
-        <v>9.43725681952052</v>
+        <v>9.747960986032485</v>
       </c>
       <c r="E15" t="n" s="58">
-        <v>0.0037680821784550154</v>
+        <v>0.00332998652390231</v>
       </c>
     </row>
     <row r="16">
@@ -9441,16 +9435,16 @@
         <v>11</v>
       </c>
       <c r="B16" t="n" s="55">
-        <v>0.9587115814354661</v>
+        <v>1.70132466475183</v>
       </c>
       <c r="C16" t="n" s="56">
         <v>1.0</v>
       </c>
       <c r="D16" t="n" s="57">
-        <v>0.5577131235344098</v>
+        <v>1.2218485722228847</v>
       </c>
       <c r="E16" t="n" s="58">
-        <v>0.45944446364238356</v>
+        <v>0.27560262541594405</v>
       </c>
     </row>
     <row r="17">
@@ -9458,10 +9452,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="n" s="55">
-        <v>70.47920011232965</v>
+        <v>55.696743554944675</v>
       </c>
       <c r="C17" t="n" s="56">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="D17" s="57"/>
       <c r="E17" s="58"/>
@@ -9512,7 +9506,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1302">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2">
@@ -10320,7 +10314,7 @@
         <v>30</v>
       </c>
       <c r="F90" t="s" s="1453">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G90" t="n" s="1454">
         <v>2.767237326539527</v>
@@ -10349,7 +10343,7 @@
         <v>30</v>
       </c>
       <c r="F91" t="s" s="1453">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G91" t="n" s="1454">
         <v>1.2745831746021241</v>
@@ -10378,7 +10372,7 @@
         <v>30</v>
       </c>
       <c r="F92" t="s" s="1453">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G92" t="n" s="1454">
         <v>0.4548622136164107</v>
@@ -10407,7 +10401,7 @@
         <v>30</v>
       </c>
       <c r="F93" t="s" s="1453">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G93" t="n" s="1454">
         <v>0.16791234567841956</v>
@@ -10436,7 +10430,7 @@
         <v>30</v>
       </c>
       <c r="F94" t="s" s="1453">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G94" t="n" s="1454">
         <v>0.4548622136164107</v>
@@ -10465,7 +10459,7 @@
         <v>30</v>
       </c>
       <c r="F95" t="s" s="1453">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G95" t="n" s="1454">
         <v>-0.342373045721751</v>
@@ -10494,7 +10488,7 @@
         <v>30</v>
       </c>
       <c r="F96" t="s" s="1453">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G96" t="n" s="1454">
         <v>0.16791234567841956</v>
@@ -10517,13 +10511,13 @@
         <v>27</v>
       </c>
       <c r="D97" t="s" s="1451">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E97" t="s" s="1452">
         <v>30</v>
       </c>
       <c r="F97" t="s" s="1453">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G97" t="n" s="1454">
         <v>1.0171941972000345</v>
@@ -10552,7 +10546,7 @@
         <v>30</v>
       </c>
       <c r="F98" t="s" s="1453">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G98" t="n" s="1454">
         <v>1.7552152238898662</v>
@@ -10581,7 +10575,7 @@
         <v>30</v>
       </c>
       <c r="F99" t="s" s="1453">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G99" t="n" s="1454">
         <v>1.9906110408136475</v>
@@ -10610,7 +10604,7 @@
         <v>30</v>
       </c>
       <c r="F100" t="s" s="1453">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G100" t="n" s="1454">
         <v>1.2745831746021241</v>
@@ -10633,13 +10627,13 @@
         <v>27</v>
       </c>
       <c r="D101" t="s" s="1451">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E101" t="s" s="1452">
         <v>30</v>
       </c>
       <c r="F101" t="s" s="1453">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G101" t="n" s="1454">
         <v>1.2745831746021241</v>
@@ -10668,7 +10662,7 @@
         <v>30</v>
       </c>
       <c r="F102" t="s" s="1453">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G102" t="n" s="1454">
         <v>1.2745831746021241</v>
@@ -10697,7 +10691,7 @@
         <v>30</v>
       </c>
       <c r="F103" t="s" s="1453">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G103" t="n" s="1454">
         <v>0.16791234567841956</v>
@@ -10741,7 +10735,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1458">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
@@ -10810,37 +10804,37 @@
         <v>71</v>
       </c>
       <c r="B7" t="n" s="1500">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="C7" t="n" s="1501">
-        <v>-0.12591824528702647</v>
+        <v>0.09387411481696263</v>
       </c>
       <c r="D7" t="n" s="1502">
-        <v>-1.015223061907267</v>
+        <v>-0.7954307018032779</v>
       </c>
       <c r="E7" t="n" s="1503">
-        <v>1.5067072753774182</v>
+        <v>1.219897005772776</v>
       </c>
       <c r="F7" t="n" s="1504">
-        <v>0.35513431056082645</v>
+        <v>0.29586848277505134</v>
       </c>
       <c r="G7" t="n" s="1505">
-        <v>-0.8361868664086793</v>
+        <v>-0.49786285073314007</v>
       </c>
       <c r="H7" t="n" s="1506">
-        <v>0.5843503758346265</v>
+        <v>0.6856110803670653</v>
       </c>
       <c r="I7" t="n" s="1507">
-        <v>19.10963858445308</v>
+        <v>16.08388208710872</v>
       </c>
       <c r="J7" t="n" s="1508">
-        <v>-2.3677570645564647</v>
+        <v>-2.0870226874870905</v>
       </c>
       <c r="K7" t="n" s="1509">
-        <v>0.014297042117209613</v>
+        <v>0.026577467201972797</v>
       </c>
       <c r="L7" t="n" s="1510">
-        <v>-0.7112613206980791</v>
+        <v>-0.6849193118921331</v>
       </c>
       <c r="M7" t="s" s="1511">
         <v>90</v>
@@ -10857,7 +10851,7 @@
         <v>0.8893048166202405</v>
       </c>
       <c r="D8" t="n" s="1502">
-        <v>1.015223061907267</v>
+        <v>0.7954307018032779</v>
       </c>
       <c r="E8" t="n" s="1503">
         <v>0.537230330450529</v>
@@ -10872,16 +10866,16 @@
         <v>1.3698182320050638</v>
       </c>
       <c r="I8" t="n" s="1507">
-        <v>19.10963858445308</v>
+        <v>16.08388208710872</v>
       </c>
       <c r="J8" t="n" s="1508">
-        <v>-2.3677570645564647</v>
+        <v>-2.0870226874870905</v>
       </c>
       <c r="K8" t="n" s="1509">
-        <v>0.014297042117209613</v>
+        <v>0.026577467201972797</v>
       </c>
       <c r="L8" t="n" s="1510">
-        <v>-0.7112613206980791</v>
+        <v>-0.6849193118921331</v>
       </c>
       <c r="M8" t="s" s="1511">
         <v>90</v>
@@ -10938,37 +10932,37 @@
         <v>71</v>
       </c>
       <c r="B11" t="n" s="1531">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="C11" t="n" s="1532">
-        <v>-0.12591824528702647</v>
+        <v>0.09387411481696263</v>
       </c>
       <c r="D11" t="n" s="1533">
-        <v>-1.015223061907267</v>
+        <v>-0.7954307018032779</v>
       </c>
       <c r="E11" t="n" s="1534">
-        <v>1.5067072753774182</v>
+        <v>1.219897005772776</v>
       </c>
       <c r="F11" t="n" s="1535">
-        <v>0.35513431056082645</v>
+        <v>0.29586848277505134</v>
       </c>
       <c r="G11" t="n" s="1536">
-        <v>-0.8361868664086793</v>
+        <v>-0.49786285073314007</v>
       </c>
       <c r="H11" t="n" s="1537">
-        <v>0.5843503758346265</v>
+        <v>0.6856110803670653</v>
       </c>
       <c r="I11" t="n" s="1538">
-        <v>19.10963858445308</v>
+        <v>16.08388208710872</v>
       </c>
       <c r="J11" t="n" s="1539">
-        <v>-2.3677570645564647</v>
+        <v>-2.0870226874870905</v>
       </c>
       <c r="K11" t="n" s="1540">
-        <v>0.9857029578827904</v>
+        <v>0.9734225327980273</v>
       </c>
       <c r="L11" t="n" s="1541">
-        <v>-0.7112613206980791</v>
+        <v>-0.6849193118921331</v>
       </c>
       <c r="M11" t="s" s="1542">
         <v>90</v>
@@ -10985,7 +10979,7 @@
         <v>0.8893048166202405</v>
       </c>
       <c r="D12" t="n" s="1533">
-        <v>1.015223061907267</v>
+        <v>0.7954307018032779</v>
       </c>
       <c r="E12" t="n" s="1534">
         <v>0.537230330450529</v>
@@ -11000,16 +10994,16 @@
         <v>1.3698182320050638</v>
       </c>
       <c r="I12" t="n" s="1538">
-        <v>19.10963858445308</v>
+        <v>16.08388208710872</v>
       </c>
       <c r="J12" t="n" s="1539">
-        <v>-2.3677570645564647</v>
+        <v>-2.0870226874870905</v>
       </c>
       <c r="K12" t="n" s="1540">
-        <v>0.9857029578827904</v>
+        <v>0.9734225327980273</v>
       </c>
       <c r="L12" t="n" s="1541">
-        <v>-0.7112613206980791</v>
+        <v>-0.6849193118921331</v>
       </c>
       <c r="M12" t="s" s="1542">
         <v>90</v>
@@ -11066,37 +11060,37 @@
         <v>71</v>
       </c>
       <c r="B15" t="n" s="1562">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="C15" t="n" s="1563">
-        <v>-0.12591824528702647</v>
+        <v>0.09387411481696263</v>
       </c>
       <c r="D15" t="n" s="1564">
-        <v>-1.015223061907267</v>
+        <v>-0.7954307018032779</v>
       </c>
       <c r="E15" t="n" s="1565">
-        <v>1.5067072753774182</v>
+        <v>1.219897005772776</v>
       </c>
       <c r="F15" t="n" s="1566">
-        <v>0.35513431056082645</v>
+        <v>0.29586848277505134</v>
       </c>
       <c r="G15" t="n" s="1567">
-        <v>-0.8361868664086793</v>
+        <v>-0.49786285073314007</v>
       </c>
       <c r="H15" t="n" s="1568">
-        <v>0.5843503758346265</v>
+        <v>0.6856110803670653</v>
       </c>
       <c r="I15" t="n" s="1569">
-        <v>19.10963858445308</v>
+        <v>16.08388208710872</v>
       </c>
       <c r="J15" t="n" s="1570">
-        <v>-2.3677570645564647</v>
+        <v>-2.0870226874870905</v>
       </c>
       <c r="K15" t="n" s="1571">
-        <v>0.028594084234419226</v>
+        <v>0.05315493440394559</v>
       </c>
       <c r="L15" t="n" s="1572">
-        <v>-0.7112613206980791</v>
+        <v>-0.6849193118921331</v>
       </c>
       <c r="M15" t="s" s="1573">
         <v>90</v>
@@ -11113,7 +11107,7 @@
         <v>0.8893048166202405</v>
       </c>
       <c r="D16" t="n" s="1564">
-        <v>1.015223061907267</v>
+        <v>0.7954307018032779</v>
       </c>
       <c r="E16" t="n" s="1565">
         <v>0.537230330450529</v>
@@ -11128,16 +11122,16 @@
         <v>1.3698182320050638</v>
       </c>
       <c r="I16" t="n" s="1569">
-        <v>19.10963858445308</v>
+        <v>16.08388208710872</v>
       </c>
       <c r="J16" t="n" s="1570">
-        <v>-2.3677570645564647</v>
+        <v>-2.0870226874870905</v>
       </c>
       <c r="K16" t="n" s="1571">
-        <v>0.028594084234419226</v>
+        <v>0.05315493440394559</v>
       </c>
       <c r="L16" t="n" s="1572">
-        <v>-0.7112613206980791</v>
+        <v>-0.6849193118921331</v>
       </c>
       <c r="M16" t="s" s="1573">
         <v>90</v>
@@ -11549,7 +11543,7 @@
         <v>29</v>
       </c>
       <c r="F90" t="s" s="1609">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G90" t="n" s="1610">
         <v>0.7428250324180973</v>
@@ -11578,7 +11572,7 @@
         <v>29</v>
       </c>
       <c r="F91" t="s" s="1609">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G91" t="n" s="1610">
         <v>1.9906110408136475</v>
@@ -11607,7 +11601,7 @@
         <v>30</v>
       </c>
       <c r="F92" t="s" s="1609">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G92" t="n" s="1610">
         <v>1.2745831746021241</v>
@@ -11636,7 +11630,7 @@
         <v>30</v>
       </c>
       <c r="F93" t="s" s="1609">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G93" t="n" s="1610">
         <v>0.4548622136164107</v>
@@ -11665,7 +11659,7 @@
         <v>29</v>
       </c>
       <c r="F94" t="s" s="1609">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G94" t="n" s="1610">
         <v>-1.316367575327888</v>
@@ -11694,7 +11688,7 @@
         <v>29</v>
       </c>
       <c r="F95" t="s" s="1609">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G95" t="n" s="1610">
         <v>-0.950851107942684</v>
@@ -11723,7 +11717,7 @@
         <v>29</v>
       </c>
       <c r="F96" t="s" s="1609">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G96" t="n" s="1610">
         <v>0.16791234567841956</v>
@@ -11752,7 +11746,7 @@
         <v>29</v>
       </c>
       <c r="F97" t="s" s="1609">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G97" t="n" s="1610">
         <v>1.518644033440787</v>
@@ -11781,7 +11775,7 @@
         <v>29</v>
       </c>
       <c r="F98" t="s" s="1609">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G98" t="n" s="1610">
         <v>-0.5607739336003862</v>
@@ -11810,7 +11804,7 @@
         <v>29</v>
       </c>
       <c r="F99" t="s" s="1609">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G99" t="n" s="1610">
         <v>-0.5607739336003862</v>
@@ -11839,7 +11833,7 @@
         <v>29</v>
       </c>
       <c r="F100" t="s" s="1609">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G100" t="n" s="1610">
         <v>-0.950851107942684</v>
@@ -11868,7 +11862,7 @@
         <v>29</v>
       </c>
       <c r="F101" t="s" s="1609">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G101" t="n" s="1610">
         <v>1.9906110408136475</v>
@@ -11897,7 +11891,7 @@
         <v>29</v>
       </c>
       <c r="F102" t="s" s="1609">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G102" t="n" s="1610">
         <v>0.4548622136164107</v>
@@ -11911,28 +11905,28 @@
     </row>
     <row r="103">
       <c r="A103" t="n" s="1604">
-        <v>10210.0</v>
+        <v>10213.0</v>
       </c>
       <c r="B103" t="n" s="1605">
-        <v>1.0277015E7</v>
+        <v>1.027704E7</v>
       </c>
       <c r="C103" t="s" s="1606">
         <v>28</v>
       </c>
       <c r="D103" t="s" s="1607">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="E103" t="s" s="1608">
         <v>29</v>
       </c>
       <c r="F103" t="s" s="1609">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G103" t="n" s="1610">
-        <v>-3.8623883670548413</v>
+        <v>-0.5607739336003862</v>
       </c>
       <c r="H103" t="n" s="1611">
-        <v>1.2998638238179954</v>
+        <v>0.4627625825645366</v>
       </c>
       <c r="I103" t="n" s="1612">
         <v>0.8579808987053142</v>
@@ -11940,28 +11934,28 @@
     </row>
     <row r="104">
       <c r="A104" t="n" s="1604">
-        <v>10213.0</v>
+        <v>10217.0</v>
       </c>
       <c r="B104" t="n" s="1605">
-        <v>1.027704E7</v>
+        <v>9805341.0</v>
       </c>
       <c r="C104" t="s" s="1606">
         <v>28</v>
       </c>
       <c r="D104" t="s" s="1607">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E104" t="s" s="1608">
         <v>29</v>
       </c>
       <c r="F104" t="s" s="1609">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G104" t="n" s="1610">
-        <v>-0.5607739336003862</v>
+        <v>1.2745831746021241</v>
       </c>
       <c r="H104" t="n" s="1611">
-        <v>0.4627625825645366</v>
+        <v>0.5041606383649226</v>
       </c>
       <c r="I104" t="n" s="1612">
         <v>0.8579808987053142</v>
@@ -11969,28 +11963,28 @@
     </row>
     <row r="105">
       <c r="A105" t="n" s="1604">
-        <v>10217.0</v>
+        <v>10218.0</v>
       </c>
       <c r="B105" t="n" s="1605">
-        <v>9805341.0</v>
+        <v>9842913.0</v>
       </c>
       <c r="C105" t="s" s="1606">
         <v>28</v>
       </c>
       <c r="D105" t="s" s="1607">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E105" t="s" s="1608">
         <v>29</v>
       </c>
       <c r="F105" t="s" s="1609">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G105" t="n" s="1610">
-        <v>1.2745831746021241</v>
+        <v>0.4548622136164107</v>
       </c>
       <c r="H105" t="n" s="1611">
-        <v>0.5041606383649226</v>
+        <v>0.521441827263477</v>
       </c>
       <c r="I105" t="n" s="1612">
         <v>0.8579808987053142</v>
@@ -11998,28 +11992,28 @@
     </row>
     <row r="106">
       <c r="A106" t="n" s="1604">
-        <v>10218.0</v>
+        <v>10220.0</v>
       </c>
       <c r="B106" t="n" s="1605">
-        <v>9842913.0</v>
+        <v>9760151.0</v>
       </c>
       <c r="C106" t="s" s="1606">
         <v>28</v>
       </c>
       <c r="D106" t="s" s="1607">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E106" t="s" s="1608">
         <v>29</v>
       </c>
       <c r="F106" t="s" s="1609">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G106" t="n" s="1610">
-        <v>0.4548622136164107</v>
+        <v>-0.950851107942684</v>
       </c>
       <c r="H106" t="n" s="1611">
-        <v>0.521441827263477</v>
+        <v>0.44369855541753156</v>
       </c>
       <c r="I106" t="n" s="1612">
         <v>0.8579808987053142</v>
@@ -12027,28 +12021,28 @@
     </row>
     <row r="107">
       <c r="A107" t="n" s="1604">
-        <v>10220.0</v>
+        <v>10226.0</v>
       </c>
       <c r="B107" t="n" s="1605">
-        <v>9760151.0</v>
+        <v>1.0310342E7</v>
       </c>
       <c r="C107" t="s" s="1606">
         <v>28</v>
       </c>
       <c r="D107" t="s" s="1607">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E107" t="s" s="1608">
         <v>29</v>
       </c>
       <c r="F107" t="s" s="1609">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G107" t="n" s="1610">
-        <v>-0.950851107942684</v>
+        <v>-2.1650026403541154</v>
       </c>
       <c r="H107" t="n" s="1611">
-        <v>0.44369855541753156</v>
+        <v>0.5442763960239487</v>
       </c>
       <c r="I107" t="n" s="1612">
         <v>0.8579808987053142</v>
@@ -12056,28 +12050,28 @@
     </row>
     <row r="108">
       <c r="A108" t="n" s="1604">
-        <v>10226.0</v>
+        <v>10227.0</v>
       </c>
       <c r="B108" t="n" s="1605">
-        <v>1.0310342E7</v>
+        <v>9274382.0</v>
       </c>
       <c r="C108" t="s" s="1606">
         <v>28</v>
       </c>
       <c r="D108" t="s" s="1607">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E108" t="s" s="1608">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F108" t="s" s="1609">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G108" t="n" s="1610">
-        <v>-2.1650026403541154</v>
+        <v>1.2745831746021241</v>
       </c>
       <c r="H108" t="n" s="1611">
-        <v>0.5442763960239487</v>
+        <v>0.5041606383649226</v>
       </c>
       <c r="I108" t="n" s="1612">
         <v>0.8579808987053142</v>
@@ -12085,22 +12079,22 @@
     </row>
     <row r="109">
       <c r="A109" t="n" s="1604">
-        <v>10227.0</v>
+        <v>10231.0</v>
       </c>
       <c r="B109" t="n" s="1605">
-        <v>9274382.0</v>
+        <v>1.0276911E7</v>
       </c>
       <c r="C109" t="s" s="1606">
         <v>28</v>
       </c>
       <c r="D109" t="s" s="1607">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E109" t="s" s="1608">
         <v>30</v>
       </c>
       <c r="F109" t="s" s="1609">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G109" t="n" s="1610">
         <v>1.2745831746021241</v>
@@ -12114,28 +12108,28 @@
     </row>
     <row r="110">
       <c r="A110" t="n" s="1604">
-        <v>10231.0</v>
+        <v>10232.0</v>
       </c>
       <c r="B110" t="n" s="1605">
-        <v>1.0276911E7</v>
+        <v>1.0276974E7</v>
       </c>
       <c r="C110" t="s" s="1606">
         <v>28</v>
       </c>
       <c r="D110" t="s" s="1607">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E110" t="s" s="1608">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F110" t="s" s="1609">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G110" t="n" s="1610">
-        <v>1.2745831746021241</v>
+        <v>1.0171941972000345</v>
       </c>
       <c r="H110" t="n" s="1611">
-        <v>0.5041606383649226</v>
+        <v>0.5126109431279409</v>
       </c>
       <c r="I110" t="n" s="1612">
         <v>0.8579808987053142</v>
@@ -12143,59 +12137,30 @@
     </row>
     <row r="111">
       <c r="A111" t="n" s="1604">
-        <v>10232.0</v>
+        <v>10238.0</v>
       </c>
       <c r="B111" t="n" s="1605">
-        <v>1.0276974E7</v>
+        <v>1.0276953E7</v>
       </c>
       <c r="C111" t="s" s="1606">
         <v>28</v>
       </c>
       <c r="D111" t="s" s="1607">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E111" t="s" s="1608">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F111" t="s" s="1609">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G111" t="n" s="1610">
-        <v>1.0171941972000345</v>
+        <v>0.16791234567841956</v>
       </c>
       <c r="H111" t="n" s="1611">
-        <v>0.5126109431279409</v>
+        <v>0.5129374642281377</v>
       </c>
       <c r="I111" t="n" s="1612">
-        <v>0.8579808987053142</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n" s="1604">
-        <v>10238.0</v>
-      </c>
-      <c r="B112" t="n" s="1605">
-        <v>1.0276953E7</v>
-      </c>
-      <c r="C112" t="s" s="1606">
-        <v>28</v>
-      </c>
-      <c r="D112" t="s" s="1607">
-        <v>113</v>
-      </c>
-      <c r="E112" t="s" s="1608">
-        <v>30</v>
-      </c>
-      <c r="F112" t="s" s="1609">
-        <v>127</v>
-      </c>
-      <c r="G112" t="n" s="1610">
-        <v>0.16791234567841956</v>
-      </c>
-      <c r="H112" t="n" s="1611">
-        <v>0.5129374642281377</v>
-      </c>
-      <c r="I112" t="n" s="1612">
         <v>0.8579808987053142</v>
       </c>
     </row>
@@ -12271,7 +12236,7 @@
         <v>29</v>
       </c>
       <c r="F2" t="s" s="1624">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G2" t="n" s="1625">
         <v>0.7428250324180973</v>
@@ -12300,7 +12265,7 @@
         <v>30</v>
       </c>
       <c r="F3" t="s" s="1624">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G3" t="n" s="1625">
         <v>2.767237326539527</v>
@@ -12329,7 +12294,7 @@
         <v>29</v>
       </c>
       <c r="F4" t="s" s="1624">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G4" t="n" s="1625">
         <v>1.9906110408136475</v>
@@ -12358,7 +12323,7 @@
         <v>30</v>
       </c>
       <c r="F5" t="s" s="1624">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G5" t="n" s="1625">
         <v>1.2745831746021241</v>
@@ -12387,7 +12352,7 @@
         <v>30</v>
       </c>
       <c r="F6" t="s" s="1624">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G6" t="n" s="1625">
         <v>0.4548622136164107</v>
@@ -12416,7 +12381,7 @@
         <v>30</v>
       </c>
       <c r="F7" t="s" s="1624">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G7" t="n" s="1625">
         <v>0.16791234567841956</v>
@@ -12445,7 +12410,7 @@
         <v>30</v>
       </c>
       <c r="F8" t="s" s="1624">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G8" t="n" s="1625">
         <v>0.4548622136164107</v>
@@ -12474,7 +12439,7 @@
         <v>29</v>
       </c>
       <c r="F9" t="s" s="1624">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G9" t="n" s="1625">
         <v>-1.316367575327888</v>
@@ -12503,7 +12468,7 @@
         <v>29</v>
       </c>
       <c r="F10" t="s" s="1624">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G10" t="n" s="1625">
         <v>-0.950851107942684</v>
@@ -12532,7 +12497,7 @@
         <v>29</v>
       </c>
       <c r="F11" t="s" s="1624">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G11" t="n" s="1625">
         <v>0.16791234567841956</v>
@@ -12561,7 +12526,7 @@
         <v>29</v>
       </c>
       <c r="F12" t="s" s="1624">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G12" t="n" s="1625">
         <v>1.518644033440787</v>
@@ -12590,7 +12555,7 @@
         <v>29</v>
       </c>
       <c r="F13" t="s" s="1624">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G13" t="n" s="1625">
         <v>-0.342373045721751</v>
@@ -12619,7 +12584,7 @@
         <v>30</v>
       </c>
       <c r="F14" t="s" s="1624">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G14" t="n" s="1625">
         <v>-0.342373045721751</v>
@@ -12648,7 +12613,7 @@
         <v>29</v>
       </c>
       <c r="F15" t="s" s="1624">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G15" t="n" s="1625">
         <v>-0.5607739336003862</v>
@@ -12677,7 +12642,7 @@
         <v>29</v>
       </c>
       <c r="F16" t="s" s="1624">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G16" t="n" s="1625">
         <v>-0.10032552078756582</v>
@@ -12706,7 +12671,7 @@
         <v>29</v>
       </c>
       <c r="F17" t="s" s="1624">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G17" t="n" s="1625">
         <v>-2.4746913210133505</v>
@@ -12735,7 +12700,7 @@
         <v>29</v>
       </c>
       <c r="F18" t="s" s="1624">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G18" t="n" s="1625">
         <v>-0.5607739336003862</v>
@@ -12764,7 +12729,7 @@
         <v>29</v>
       </c>
       <c r="F19" t="s" s="1624">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G19" t="n" s="1625">
         <v>0.4548622136164107</v>
@@ -12793,7 +12758,7 @@
         <v>29</v>
       </c>
       <c r="F20" t="s" s="1624">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G20" t="n" s="1625">
         <v>-0.950851107942684</v>
@@ -12822,7 +12787,7 @@
         <v>29</v>
       </c>
       <c r="F21" t="s" s="1624">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G21" t="n" s="1625">
         <v>1.0171941972000345</v>
@@ -12851,7 +12816,7 @@
         <v>29</v>
       </c>
       <c r="F22" t="s" s="1624">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G22" t="n" s="1625">
         <v>1.9906110408136475</v>
@@ -12880,7 +12845,7 @@
         <v>29</v>
       </c>
       <c r="F23" t="s" s="1624">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G23" t="n" s="1625">
         <v>-0.7615650634376759</v>
@@ -12909,7 +12874,7 @@
         <v>29</v>
       </c>
       <c r="F24" t="s" s="1624">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G24" t="n" s="1625">
         <v>0.7428250324180973</v>
@@ -12938,7 +12903,7 @@
         <v>29</v>
       </c>
       <c r="F25" t="s" s="1624">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G25" t="n" s="1625">
         <v>0.4548622136164107</v>
@@ -12967,7 +12932,7 @@
         <v>30</v>
       </c>
       <c r="F26" t="s" s="1624">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G26" t="n" s="1625">
         <v>0.16791234567841956</v>
@@ -12996,7 +12961,7 @@
         <v>29</v>
       </c>
       <c r="F27" t="s" s="1624">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G27" t="n" s="1625">
         <v>-1.6999199590900442</v>
@@ -13010,28 +12975,28 @@
     </row>
     <row r="28">
       <c r="A28" t="n" s="1619">
-        <v>10210.0</v>
+        <v>10213.0</v>
       </c>
       <c r="B28" t="n" s="1620">
-        <v>1.0277015E7</v>
+        <v>1.027704E7</v>
       </c>
       <c r="C28" t="s" s="1621">
         <v>28</v>
       </c>
       <c r="D28" t="s" s="1622">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="E28" t="s" s="1623">
         <v>29</v>
       </c>
       <c r="F28" t="s" s="1624">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G28" t="n" s="1625">
-        <v>-3.8623883670548413</v>
+        <v>-0.5607739336003862</v>
       </c>
       <c r="H28" t="n" s="1626">
-        <v>1.2998638238179954</v>
+        <v>0.4627625825645366</v>
       </c>
       <c r="I28" t="n" s="1627">
         <v>0.8579808987053142</v>
@@ -13039,16 +13004,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n" s="1619">
-        <v>10213.0</v>
+        <v>10214.0</v>
       </c>
       <c r="B29" t="n" s="1620">
-        <v>1.027704E7</v>
+        <v>1.0277022E7</v>
       </c>
       <c r="C29" t="s" s="1621">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s" s="1622">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="E29" t="s" s="1623">
         <v>29</v>
@@ -13057,10 +13022,10 @@
         <v>127</v>
       </c>
       <c r="G29" t="n" s="1625">
-        <v>-0.5607739336003862</v>
+        <v>-2.9180839197279487</v>
       </c>
       <c r="H29" t="n" s="1626">
-        <v>0.4627625825645366</v>
+        <v>0.7750341503194955</v>
       </c>
       <c r="I29" t="n" s="1627">
         <v>0.8579808987053142</v>
@@ -13068,28 +13033,28 @@
     </row>
     <row r="30">
       <c r="A30" t="n" s="1619">
-        <v>10214.0</v>
+        <v>10215.0</v>
       </c>
       <c r="B30" t="n" s="1620">
-        <v>1.0277022E7</v>
+        <v>9285227.0</v>
       </c>
       <c r="C30" t="s" s="1621">
         <v>27</v>
       </c>
       <c r="D30" t="s" s="1622">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E30" t="s" s="1623">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F30" t="s" s="1624">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G30" t="n" s="1625">
-        <v>-2.9180839197279487</v>
+        <v>1.0171941972000345</v>
       </c>
       <c r="H30" t="n" s="1626">
-        <v>0.7750341503194955</v>
+        <v>0.5126109431279409</v>
       </c>
       <c r="I30" t="n" s="1627">
         <v>0.8579808987053142</v>
@@ -13097,28 +13062,28 @@
     </row>
     <row r="31">
       <c r="A31" t="n" s="1619">
-        <v>10215.0</v>
+        <v>10216.0</v>
       </c>
       <c r="B31" t="n" s="1620">
-        <v>9285227.0</v>
+        <v>1.027672E7</v>
       </c>
       <c r="C31" t="s" s="1621">
         <v>27</v>
       </c>
       <c r="D31" t="s" s="1622">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E31" t="s" s="1623">
         <v>30</v>
       </c>
       <c r="F31" t="s" s="1624">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G31" t="n" s="1625">
-        <v>1.0171941972000345</v>
+        <v>1.7552152238898662</v>
       </c>
       <c r="H31" t="n" s="1626">
-        <v>0.5126109431279409</v>
+        <v>0.49674595254975173</v>
       </c>
       <c r="I31" t="n" s="1627">
         <v>0.8579808987053142</v>
@@ -13126,28 +13091,28 @@
     </row>
     <row r="32">
       <c r="A32" t="n" s="1619">
-        <v>10216.0</v>
+        <v>10217.0</v>
       </c>
       <c r="B32" t="n" s="1620">
-        <v>1.027672E7</v>
+        <v>9805341.0</v>
       </c>
       <c r="C32" t="s" s="1621">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D32" t="s" s="1622">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E32" t="s" s="1623">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F32" t="s" s="1624">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G32" t="n" s="1625">
-        <v>1.7552152238898662</v>
+        <v>1.2745831746021241</v>
       </c>
       <c r="H32" t="n" s="1626">
-        <v>0.49674595254975173</v>
+        <v>0.5041606383649226</v>
       </c>
       <c r="I32" t="n" s="1627">
         <v>0.8579808987053142</v>
@@ -13155,28 +13120,28 @@
     </row>
     <row r="33">
       <c r="A33" t="n" s="1619">
-        <v>10217.0</v>
+        <v>10218.0</v>
       </c>
       <c r="B33" t="n" s="1620">
-        <v>9805341.0</v>
+        <v>9842913.0</v>
       </c>
       <c r="C33" t="s" s="1621">
         <v>28</v>
       </c>
       <c r="D33" t="s" s="1622">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E33" t="s" s="1623">
         <v>29</v>
       </c>
       <c r="F33" t="s" s="1624">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G33" t="n" s="1625">
-        <v>1.2745831746021241</v>
+        <v>0.4548622136164107</v>
       </c>
       <c r="H33" t="n" s="1626">
-        <v>0.5041606383649226</v>
+        <v>0.521441827263477</v>
       </c>
       <c r="I33" t="n" s="1627">
         <v>0.8579808987053142</v>
@@ -13184,28 +13149,28 @@
     </row>
     <row r="34">
       <c r="A34" t="n" s="1619">
-        <v>10218.0</v>
+        <v>10220.0</v>
       </c>
       <c r="B34" t="n" s="1620">
-        <v>9842913.0</v>
+        <v>9760151.0</v>
       </c>
       <c r="C34" t="s" s="1621">
         <v>28</v>
       </c>
       <c r="D34" t="s" s="1622">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E34" t="s" s="1623">
         <v>29</v>
       </c>
       <c r="F34" t="s" s="1624">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G34" t="n" s="1625">
-        <v>0.4548622136164107</v>
+        <v>-0.950851107942684</v>
       </c>
       <c r="H34" t="n" s="1626">
-        <v>0.521441827263477</v>
+        <v>0.44369855541753156</v>
       </c>
       <c r="I34" t="n" s="1627">
         <v>0.8579808987053142</v>
@@ -13213,16 +13178,16 @@
     </row>
     <row r="35">
       <c r="A35" t="n" s="1619">
-        <v>10220.0</v>
+        <v>10221.0</v>
       </c>
       <c r="B35" t="n" s="1620">
-        <v>9760151.0</v>
+        <v>9082496.0</v>
       </c>
       <c r="C35" t="s" s="1621">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D35" t="s" s="1622">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E35" t="s" s="1623">
         <v>29</v>
@@ -13242,28 +13207,28 @@
     </row>
     <row r="36">
       <c r="A36" t="n" s="1619">
-        <v>10221.0</v>
+        <v>10223.0</v>
       </c>
       <c r="B36" t="n" s="1620">
-        <v>9082496.0</v>
+        <v>9795185.0</v>
       </c>
       <c r="C36" t="s" s="1621">
         <v>27</v>
       </c>
       <c r="D36" t="s" s="1622">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E36" t="s" s="1623">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F36" t="s" s="1624">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G36" t="n" s="1625">
-        <v>-0.950851107942684</v>
+        <v>1.9906110408136475</v>
       </c>
       <c r="H36" t="n" s="1626">
-        <v>0.44369855541753156</v>
+        <v>0.5008514596790399</v>
       </c>
       <c r="I36" t="n" s="1627">
         <v>0.8579808987053142</v>
@@ -13271,28 +13236,28 @@
     </row>
     <row r="37">
       <c r="A37" t="n" s="1619">
-        <v>10223.0</v>
+        <v>10224.0</v>
       </c>
       <c r="B37" t="n" s="1620">
-        <v>9795185.0</v>
+        <v>9368772.0</v>
       </c>
       <c r="C37" t="s" s="1621">
         <v>27</v>
       </c>
       <c r="D37" t="s" s="1622">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E37" t="s" s="1623">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F37" t="s" s="1624">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G37" t="n" s="1625">
-        <v>1.9906110408136475</v>
+        <v>0.4548622136164107</v>
       </c>
       <c r="H37" t="n" s="1626">
-        <v>0.5008514596790399</v>
+        <v>0.521441827263477</v>
       </c>
       <c r="I37" t="n" s="1627">
         <v>0.8579808987053142</v>
@@ -13300,28 +13265,28 @@
     </row>
     <row r="38">
       <c r="A38" t="n" s="1619">
-        <v>10224.0</v>
+        <v>10226.0</v>
       </c>
       <c r="B38" t="n" s="1620">
-        <v>9368772.0</v>
+        <v>1.0310342E7</v>
       </c>
       <c r="C38" t="s" s="1621">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D38" t="s" s="1622">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E38" t="s" s="1623">
         <v>29</v>
       </c>
       <c r="F38" t="s" s="1624">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G38" t="n" s="1625">
-        <v>0.4548622136164107</v>
+        <v>-2.1650026403541154</v>
       </c>
       <c r="H38" t="n" s="1626">
-        <v>0.521441827263477</v>
+        <v>0.5442763960239487</v>
       </c>
       <c r="I38" t="n" s="1627">
         <v>0.8579808987053142</v>
@@ -13329,28 +13294,28 @@
     </row>
     <row r="39">
       <c r="A39" t="n" s="1619">
-        <v>10226.0</v>
+        <v>10227.0</v>
       </c>
       <c r="B39" t="n" s="1620">
-        <v>1.0310342E7</v>
+        <v>9274382.0</v>
       </c>
       <c r="C39" t="s" s="1621">
         <v>28</v>
       </c>
       <c r="D39" t="s" s="1622">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E39" t="s" s="1623">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F39" t="s" s="1624">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G39" t="n" s="1625">
-        <v>-2.1650026403541154</v>
+        <v>1.2745831746021241</v>
       </c>
       <c r="H39" t="n" s="1626">
-        <v>0.5442763960239487</v>
+        <v>0.5041606383649226</v>
       </c>
       <c r="I39" t="n" s="1627">
         <v>0.8579808987053142</v>
@@ -13358,28 +13323,28 @@
     </row>
     <row r="40">
       <c r="A40" t="n" s="1619">
-        <v>10227.0</v>
+        <v>10228.0</v>
       </c>
       <c r="B40" t="n" s="1620">
-        <v>9274382.0</v>
+        <v>1.0310492E7</v>
       </c>
       <c r="C40" t="s" s="1621">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D40" t="s" s="1622">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="E40" t="s" s="1623">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F40" t="s" s="1624">
         <v>127</v>
       </c>
       <c r="G40" t="n" s="1625">
-        <v>1.2745831746021241</v>
+        <v>-2.4746913210133505</v>
       </c>
       <c r="H40" t="n" s="1626">
-        <v>0.5041606383649226</v>
+        <v>0.6209806794261471</v>
       </c>
       <c r="I40" t="n" s="1627">
         <v>0.8579808987053142</v>
@@ -13387,28 +13352,28 @@
     </row>
     <row r="41">
       <c r="A41" t="n" s="1619">
-        <v>10228.0</v>
+        <v>10230.0</v>
       </c>
       <c r="B41" t="n" s="1620">
-        <v>1.0310492E7</v>
+        <v>1.0351992E7</v>
       </c>
       <c r="C41" t="s" s="1621">
         <v>27</v>
       </c>
       <c r="D41" t="s" s="1622">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E41" t="s" s="1623">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F41" t="s" s="1624">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G41" t="n" s="1625">
-        <v>-2.4746913210133505</v>
+        <v>1.2745831746021241</v>
       </c>
       <c r="H41" t="n" s="1626">
-        <v>0.6209806794261471</v>
+        <v>0.5041606383649226</v>
       </c>
       <c r="I41" t="n" s="1627">
         <v>0.8579808987053142</v>
@@ -13416,22 +13381,22 @@
     </row>
     <row r="42">
       <c r="A42" t="n" s="1619">
-        <v>10230.0</v>
+        <v>10231.0</v>
       </c>
       <c r="B42" t="n" s="1620">
-        <v>1.0351992E7</v>
+        <v>1.0276911E7</v>
       </c>
       <c r="C42" t="s" s="1621">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D42" t="s" s="1622">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E42" t="s" s="1623">
         <v>30</v>
       </c>
       <c r="F42" t="s" s="1624">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G42" t="n" s="1625">
         <v>1.2745831746021241</v>
@@ -13445,28 +13410,28 @@
     </row>
     <row r="43">
       <c r="A43" t="n" s="1619">
-        <v>10231.0</v>
+        <v>10232.0</v>
       </c>
       <c r="B43" t="n" s="1620">
-        <v>1.0276911E7</v>
+        <v>1.0276974E7</v>
       </c>
       <c r="C43" t="s" s="1621">
         <v>28</v>
       </c>
       <c r="D43" t="s" s="1622">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E43" t="s" s="1623">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F43" t="s" s="1624">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G43" t="n" s="1625">
-        <v>1.2745831746021241</v>
+        <v>1.0171941972000345</v>
       </c>
       <c r="H43" t="n" s="1626">
-        <v>0.5041606383649226</v>
+        <v>0.5126109431279409</v>
       </c>
       <c r="I43" t="n" s="1627">
         <v>0.8579808987053142</v>
@@ -13474,16 +13439,16 @@
     </row>
     <row r="44">
       <c r="A44" t="n" s="1619">
-        <v>10232.0</v>
+        <v>10237.0</v>
       </c>
       <c r="B44" t="n" s="1620">
-        <v>1.0276974E7</v>
+        <v>1.0377688E7</v>
       </c>
       <c r="C44" t="s" s="1621">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D44" t="s" s="1622">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E44" t="s" s="1623">
         <v>29</v>
@@ -13492,10 +13457,10 @@
         <v>127</v>
       </c>
       <c r="G44" t="n" s="1625">
-        <v>1.0171941972000345</v>
+        <v>0.7428250324180973</v>
       </c>
       <c r="H44" t="n" s="1626">
-        <v>0.5126109431279409</v>
+        <v>0.5201119689447289</v>
       </c>
       <c r="I44" t="n" s="1627">
         <v>0.8579808987053142</v>
@@ -13503,59 +13468,30 @@
     </row>
     <row r="45">
       <c r="A45" t="n" s="1619">
-        <v>10237.0</v>
+        <v>10238.0</v>
       </c>
       <c r="B45" t="n" s="1620">
-        <v>1.0377688E7</v>
+        <v>1.0276953E7</v>
       </c>
       <c r="C45" t="s" s="1621">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D45" t="s" s="1622">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E45" t="s" s="1623">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F45" t="s" s="1624">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G45" t="n" s="1625">
-        <v>0.7428250324180973</v>
+        <v>0.16791234567841956</v>
       </c>
       <c r="H45" t="n" s="1626">
-        <v>0.5201119689447289</v>
+        <v>0.5129374642281377</v>
       </c>
       <c r="I45" t="n" s="1627">
-        <v>0.8579808987053142</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n" s="1619">
-        <v>10238.0</v>
-      </c>
-      <c r="B46" t="n" s="1620">
-        <v>1.0276953E7</v>
-      </c>
-      <c r="C46" t="s" s="1621">
-        <v>28</v>
-      </c>
-      <c r="D46" t="s" s="1622">
-        <v>113</v>
-      </c>
-      <c r="E46" t="s" s="1623">
-        <v>30</v>
-      </c>
-      <c r="F46" t="s" s="1624">
-        <v>127</v>
-      </c>
-      <c r="G46" t="n" s="1625">
-        <v>0.16791234567841956</v>
-      </c>
-      <c r="H46" t="n" s="1626">
-        <v>0.5129374642281377</v>
-      </c>
-      <c r="I46" t="n" s="1627">
         <v>0.8579808987053142</v>
       </c>
     </row>
@@ -13608,10 +13544,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="101">
-        <v>0.9714580136553885</v>
+        <v>0.9700499913766202</v>
       </c>
       <c r="B6" t="n" s="102">
-        <v>0.32671595687721977</v>
+        <v>0.3038735753218796</v>
       </c>
     </row>
     <row r="7">
@@ -13825,15 +13761,15 @@
         <v>3.0</v>
       </c>
       <c r="B47" t="n" s="134">
-        <v>1.7680188341634526</v>
+        <v>1.7948288348665111</v>
       </c>
       <c r="C47" t="n" s="135">
-        <v>0.16834755539752583</v>
+        <v>0.1636745973724517</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n" s="133">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="B48" s="134"/>
       <c r="C48" s="135"/>
@@ -14723,7 +14659,7 @@
         <v>29</v>
       </c>
       <c r="C222" t="n" s="168">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="223">
@@ -14934,16 +14870,16 @@
         <v>46</v>
       </c>
       <c r="B6" t="n" s="225">
-        <v>0.051908681579925744</v>
+        <v>0.23178008100719055</v>
       </c>
       <c r="C6" t="n" s="226">
-        <v>-0.7377187395096828</v>
+        <v>-0.487289765779194</v>
       </c>
       <c r="D6" t="n" s="227">
-        <v>0.8415361026695344</v>
+        <v>0.9508499277935751</v>
       </c>
       <c r="E6" t="n" s="228">
-        <v>0.8950318650264171</v>
+        <v>0.518475380673143</v>
       </c>
     </row>
     <row r="7">
@@ -14981,16 +14917,16 @@
         <v>48</v>
       </c>
       <c r="B11" t="n" s="247">
-        <v>1.3313263639756518</v>
+        <v>1.2509143593729692</v>
       </c>
       <c r="C11" t="n" s="248">
-        <v>0.47871205841922004</v>
+        <v>0.4790000118456538</v>
       </c>
       <c r="D11" t="n" s="249">
-        <v>2.1839406695320838</v>
+        <v>2.0228287069002846</v>
       </c>
       <c r="E11" t="n" s="250">
-        <v>0.0030163467194316285</v>
+        <v>0.0021846557564249025</v>
       </c>
     </row>
     <row r="12">
@@ -15028,16 +14964,16 @@
         <v>50</v>
       </c>
       <c r="B16" t="n" s="269">
-        <v>0.5133073369795367</v>
+        <v>0.7330996970835257</v>
       </c>
       <c r="C16" t="n" s="270">
-        <v>-0.7644852374813009</v>
+        <v>-0.4322389189310676</v>
       </c>
       <c r="D16" t="n" s="271">
-        <v>1.7910999114403743</v>
+        <v>1.898438313098119</v>
       </c>
       <c r="E16" t="n" s="272">
-        <v>0.7061264755857488</v>
+        <v>0.34417178994905306</v>
       </c>
     </row>
     <row r="17">
@@ -15048,13 +14984,13 @@
         <v>1.6673538958550853</v>
       </c>
       <c r="C17" t="n" s="270">
-        <v>0.1450342525594186</v>
+        <v>0.29582154162284025</v>
       </c>
       <c r="D17" t="n" s="271">
-        <v>3.189673539150752</v>
+        <v>3.03888625008733</v>
       </c>
       <c r="E17" t="n" s="272">
-        <v>0.026999402307708587</v>
+        <v>0.011783340789425556</v>
       </c>
     </row>
     <row r="18">
@@ -15062,16 +14998,16 @@
         <v>52</v>
       </c>
       <c r="B18" t="n" s="269">
-        <v>1.528530398886804</v>
+        <v>1.5285303988868038</v>
       </c>
       <c r="C18" t="n" s="270">
-        <v>-0.31889545055625046</v>
+        <v>-0.1359060653702755</v>
       </c>
       <c r="D18" t="n" s="271">
-        <v>3.3759562483298584</v>
+        <v>3.192966863143883</v>
       </c>
       <c r="E18" t="n" s="272">
-        <v>0.13606607418373695</v>
+        <v>0.08182496896087899</v>
       </c>
     </row>
     <row r="19">
@@ -15079,16 +15015,16 @@
         <v>53</v>
       </c>
       <c r="B19" t="n" s="269">
-        <v>1.1540465588755486</v>
+        <v>0.9342541987715596</v>
       </c>
       <c r="C19" t="n" s="270">
-        <v>-0.2791699980514819</v>
+        <v>-0.3695987275111061</v>
       </c>
       <c r="D19" t="n" s="271">
-        <v>2.587263115802579</v>
+        <v>2.238107125054225</v>
       </c>
       <c r="E19" t="n" s="272">
-        <v>0.15287347877505608</v>
+        <v>0.23582550811049663</v>
       </c>
     </row>
     <row r="20">
@@ -15096,16 +15032,16 @@
         <v>54</v>
       </c>
       <c r="B20" t="n" s="269">
-        <v>1.0152230619072673</v>
+        <v>0.795430701803278</v>
       </c>
       <c r="C20" t="n" s="270">
-        <v>-0.7594980068458812</v>
+        <v>-0.8136933450677621</v>
       </c>
       <c r="D20" t="n" s="271">
-        <v>2.789944130660416</v>
+        <v>2.404554748674318</v>
       </c>
       <c r="E20" t="n" s="272">
-        <v>0.4283797928221611</v>
+        <v>0.552829146060565</v>
       </c>
     </row>
     <row r="21">
@@ -15113,16 +15049,16 @@
         <v>55</v>
       </c>
       <c r="B21" t="n" s="269">
-        <v>-0.13882349696828133</v>
+        <v>-0.13882349696828156</v>
       </c>
       <c r="C21" t="n" s="270">
-        <v>-2.09697009640687</v>
+        <v>-1.9030137097712179</v>
       </c>
       <c r="D21" t="n" s="271">
-        <v>1.8193231024703074</v>
+        <v>1.6253667158346548</v>
       </c>
       <c r="E21" t="n" s="272">
-        <v>0.997534319287584</v>
+        <v>0.9966278556236985</v>
       </c>
     </row>
     <row r="22">
@@ -15165,19 +15101,19 @@
         <v>62</v>
       </c>
       <c r="B26" t="n" s="292">
-        <v>-0.18724192000562895</v>
+        <v>-0.29713810005762253</v>
       </c>
       <c r="C26" t="n" s="293">
-        <v>0.43661565887474246</v>
+        <v>0.3944023936138635</v>
       </c>
       <c r="D26" t="n" s="294">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="E26" t="n" s="295">
-        <v>-0.42884838461404207</v>
+        <v>-0.7533881763114583</v>
       </c>
       <c r="F26" t="n" s="296">
-        <v>0.6702784982278827</v>
+        <v>0.4556284711733736</v>
       </c>
     </row>
     <row r="27">
@@ -15226,19 +15162,19 @@
         <v>29</v>
       </c>
       <c r="C31" t="n" s="317">
-        <v>-0.5133073369795378</v>
+        <v>-0.7330996970835261</v>
       </c>
       <c r="D31" t="n" s="318">
-        <v>0.4772121287550841</v>
+        <v>0.43475981649313294</v>
       </c>
       <c r="E31" t="n" s="319">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="F31" t="n" s="320">
-        <v>-1.0756376589141106</v>
+        <v>-1.6862176983072341</v>
       </c>
       <c r="G31" t="n" s="321">
-        <v>0.2883784899467276</v>
+        <v>0.0995399346934115</v>
       </c>
     </row>
     <row r="32">
@@ -15249,19 +15185,19 @@
         <v>30</v>
       </c>
       <c r="C32" t="n" s="317">
-        <v>0.13882349696827984</v>
+        <v>0.138823496968281</v>
       </c>
       <c r="D32" t="n" s="318">
-        <v>0.7313012501476683</v>
+        <v>0.6581769475727912</v>
       </c>
       <c r="E32" t="n" s="319">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="F32" t="n" s="320">
-        <v>0.18983079399939196</v>
+        <v>0.21092123855177683</v>
       </c>
       <c r="G32" t="n" s="321">
-        <v>0.8503784509437013</v>
+        <v>0.8340196058574348</v>
       </c>
     </row>
     <row r="33">
@@ -15307,19 +15243,19 @@
         <v>27</v>
       </c>
       <c r="B37" t="n" s="341">
-        <v>0.194451365660979</v>
+        <v>0.1944513656609792</v>
       </c>
       <c r="C37" t="n" s="342">
-        <v>0.28426734203293436</v>
+        <v>0.2558428710959915</v>
       </c>
       <c r="D37" t="n" s="343">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="E37" t="n" s="344">
-        <v>-0.3796381781330036</v>
+        <v>-0.3226263648964294</v>
       </c>
       <c r="F37" t="n" s="345">
-        <v>0.7685409094549616</v>
+        <v>0.7115290962183878</v>
       </c>
       <c r="G37" t="s" s="346">
         <v>27</v>
@@ -15330,19 +15266,19 @@
         <v>28</v>
       </c>
       <c r="B38" t="n" s="341">
-        <v>0.381693285666608</v>
+        <v>0.49158946571860174</v>
       </c>
       <c r="C38" t="n" s="342">
-        <v>0.33139902206879857</v>
+        <v>0.30016274485302913</v>
       </c>
       <c r="D38" t="n" s="343">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="E38" t="n" s="344">
-        <v>-0.2875806169655363</v>
+        <v>-0.11506207099063648</v>
       </c>
       <c r="F38" t="n" s="345">
-        <v>1.0509671882987521</v>
+        <v>1.09824100242784</v>
       </c>
       <c r="G38" t="s" s="346">
         <v>28</v>
@@ -15397,19 +15333,19 @@
         <v>29</v>
       </c>
       <c r="C43" t="n" s="367">
-        <v>-0.6392255822665635</v>
+        <v>-0.6392255822665633</v>
       </c>
       <c r="D43" t="n" s="368">
-        <v>0.36363600574756166</v>
+        <v>0.32727530035284896</v>
       </c>
       <c r="E43" t="n" s="369">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="F43" t="n" s="370">
-        <v>-1.3736033942014196</v>
+        <v>-1.3006736376648003</v>
       </c>
       <c r="G43" t="n" s="371">
-        <v>0.09515222966829273</v>
+        <v>0.022222473131673692</v>
       </c>
       <c r="H43" t="s" s="372">
         <v>70</v>
@@ -15423,19 +15359,19 @@
         <v>29</v>
       </c>
       <c r="C44" t="n" s="367">
-        <v>-0.1259182452870257</v>
+        <v>0.09387411481696278</v>
       </c>
       <c r="D44" t="n" s="368">
-        <v>0.3090311815252924</v>
+        <v>0.2861939479026332</v>
       </c>
       <c r="E44" t="n" s="369">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="F44" t="n" s="370">
-        <v>-0.7500193775212596</v>
+        <v>-0.4845454301436449</v>
       </c>
       <c r="G44" t="n" s="371">
-        <v>0.49818288694720825</v>
+        <v>0.6722936597775704</v>
       </c>
       <c r="H44" t="s" s="372">
         <v>71</v>
@@ -15449,19 +15385,19 @@
         <v>30</v>
       </c>
       <c r="C45" t="n" s="367">
-        <v>1.0281283135885215</v>
+        <v>1.0281283135885217</v>
       </c>
       <c r="D45" t="n" s="368">
-        <v>0.4370360881092503</v>
+        <v>0.39333595887169154</v>
       </c>
       <c r="E45" t="n" s="369">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="F45" t="n" s="370">
-        <v>0.1455160280904637</v>
+        <v>0.23316668699042553</v>
       </c>
       <c r="G45" t="n" s="371">
-        <v>1.9107405990865793</v>
+        <v>1.8230899401866179</v>
       </c>
       <c r="H45" t="s" s="372">
         <v>72</v>
@@ -15475,19 +15411,19 @@
         <v>30</v>
       </c>
       <c r="C46" t="n" s="367">
-        <v>0.8893048166202416</v>
+        <v>0.8893048166202406</v>
       </c>
       <c r="D46" t="n" s="368">
-        <v>0.5863454409797231</v>
+        <v>0.5277155652192983</v>
       </c>
       <c r="E46" t="n" s="369">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="F46" t="n" s="370">
-        <v>-0.2948438242698245</v>
+        <v>-0.17724812532604828</v>
       </c>
       <c r="G46" t="n" s="371">
-        <v>2.0734534575103076</v>
+        <v>1.9558577585665295</v>
       </c>
       <c r="H46" t="s" s="372">
         <v>73</v>
@@ -16311,7 +16247,7 @@
         <v>1.028128313588522</v>
       </c>
       <c r="D18" t="n" s="480">
-        <v>1.1540465588755484</v>
+        <v>0.9342541987715594</v>
       </c>
       <c r="E18" t="n" s="481">
         <v>1.014102996977359</v>
@@ -16326,19 +16262,19 @@
         <v>1.7041969782400948</v>
       </c>
       <c r="I18" t="n" s="485">
-        <v>22.504233839230416</v>
+        <v>19.29147225504692</v>
       </c>
       <c r="J18" t="n" s="486">
-        <v>2.353787813997304</v>
+        <v>2.079690462947618</v>
       </c>
       <c r="K18" t="n" s="487">
-        <v>0.013853596322939076</v>
+        <v>0.02556060665767781</v>
       </c>
       <c r="L18" t="n" s="488">
-        <v>0.8177363828717306</v>
+        <v>0.7830775786653383</v>
       </c>
       <c r="M18" t="s" s="489">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19">
@@ -16346,40 +16282,40 @@
         <v>71</v>
       </c>
       <c r="B19" t="n" s="478">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="C19" t="n" s="479">
-        <v>-0.12591824528702647</v>
+        <v>0.09387411481696263</v>
       </c>
       <c r="D19" t="n" s="480">
-        <v>-1.1540465588755484</v>
+        <v>-0.9342541987715594</v>
       </c>
       <c r="E19" t="n" s="481">
-        <v>1.5067072753774182</v>
+        <v>1.219897005772776</v>
       </c>
       <c r="F19" t="n" s="482">
-        <v>0.35513431056082645</v>
+        <v>0.29586848277505134</v>
       </c>
       <c r="G19" t="n" s="483">
-        <v>-0.8361868664086793</v>
+        <v>-0.49786285073314007</v>
       </c>
       <c r="H19" t="n" s="484">
-        <v>0.5843503758346265</v>
+        <v>0.6856110803670653</v>
       </c>
       <c r="I19" t="n" s="485">
-        <v>22.504233839230416</v>
+        <v>19.29147225504692</v>
       </c>
       <c r="J19" t="n" s="486">
-        <v>2.353787813997304</v>
+        <v>2.079690462947618</v>
       </c>
       <c r="K19" t="n" s="487">
-        <v>0.013853596322939076</v>
+        <v>0.02556060665767781</v>
       </c>
       <c r="L19" t="n" s="488">
-        <v>0.8177363828717306</v>
+        <v>0.7830775786653383</v>
       </c>
       <c r="M19" t="s" s="489">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20">
@@ -16443,37 +16379,37 @@
         <v>71</v>
       </c>
       <c r="B24" t="n" s="509">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="C24" t="n" s="510">
-        <v>-0.12591824528702647</v>
+        <v>0.09387411481696263</v>
       </c>
       <c r="D24" t="n" s="511">
-        <v>-1.015223061907267</v>
+        <v>-0.7954307018032779</v>
       </c>
       <c r="E24" t="n" s="512">
-        <v>1.5067072753774182</v>
+        <v>1.219897005772776</v>
       </c>
       <c r="F24" t="n" s="513">
-        <v>0.35513431056082645</v>
+        <v>0.29586848277505134</v>
       </c>
       <c r="G24" t="n" s="514">
-        <v>-0.8361868664086793</v>
+        <v>-0.49786285073314007</v>
       </c>
       <c r="H24" t="n" s="515">
-        <v>0.5843503758346265</v>
+        <v>0.6856110803670653</v>
       </c>
       <c r="I24" t="n" s="516">
-        <v>19.10963858445308</v>
+        <v>16.08388208710872</v>
       </c>
       <c r="J24" t="n" s="517">
-        <v>-2.3677570645564647</v>
+        <v>-2.0870226874870905</v>
       </c>
       <c r="K24" t="n" s="518">
-        <v>0.014297042117209613</v>
+        <v>0.026577467201972797</v>
       </c>
       <c r="L24" t="n" s="519">
-        <v>-0.7112613206980791</v>
+        <v>-0.6849193118921331</v>
       </c>
       <c r="M24" t="s" s="520">
         <v>90</v>
@@ -16490,7 +16426,7 @@
         <v>0.8893048166202405</v>
       </c>
       <c r="D25" t="n" s="511">
-        <v>1.015223061907267</v>
+        <v>0.7954307018032779</v>
       </c>
       <c r="E25" t="n" s="512">
         <v>0.537230330450529</v>
@@ -16505,16 +16441,16 @@
         <v>1.3698182320050638</v>
       </c>
       <c r="I25" t="n" s="516">
-        <v>19.10963858445308</v>
+        <v>16.08388208710872</v>
       </c>
       <c r="J25" t="n" s="517">
-        <v>-2.3677570645564647</v>
+        <v>-2.0870226874870905</v>
       </c>
       <c r="K25" t="n" s="518">
-        <v>0.014297042117209613</v>
+        <v>0.026577467201972797</v>
       </c>
       <c r="L25" t="n" s="519">
-        <v>-0.7112613206980791</v>
+        <v>-0.6849193118921331</v>
       </c>
       <c r="M25" t="s" s="520">
         <v>90</v>
@@ -16626,7 +16562,7 @@
         <v>0.04287373876506263</v>
       </c>
       <c r="D7" t="n" s="566">
-        <v>-0.05190868157992545</v>
+        <v>-0.23178008100719044</v>
       </c>
       <c r="E7" t="n" s="567">
         <v>1.4722320445289387</v>
@@ -16641,16 +16577,16 @@
         <v>0.670635591835572</v>
       </c>
       <c r="I7" t="n" s="571">
-        <v>42.668654817141096</v>
+        <v>39.56099734939323</v>
       </c>
       <c r="J7" t="n" s="572">
-        <v>-0.12067096767060825</v>
+        <v>-0.5833849943999982</v>
       </c>
       <c r="K7" t="n" s="573">
-        <v>0.45225905596613064</v>
+        <v>0.2814727424600876</v>
       </c>
       <c r="L7" t="n" s="574">
-        <v>-0.035389015184225575</v>
+        <v>-0.1727373642344771</v>
       </c>
       <c r="M7" t="s" s="575">
         <v>94</v>
@@ -16661,37 +16597,37 @@
         <v>28</v>
       </c>
       <c r="B8" t="n" s="564">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C8" t="n" s="565">
-        <v>0.09478242034498809</v>
+        <v>0.27465381977225306</v>
       </c>
       <c r="D8" t="n" s="566">
-        <v>0.05190868157992545</v>
+        <v>0.23178008100719044</v>
       </c>
       <c r="E8" t="n" s="567">
-        <v>1.4106798625905261</v>
+        <v>1.1424578007389008</v>
       </c>
       <c r="F8" t="n" s="568">
-        <v>0.29414708497017833</v>
+        <v>0.2435728215235889</v>
       </c>
       <c r="G8" t="n" s="569">
-        <v>-0.4935117495953686</v>
+        <v>-0.21249182327492472</v>
       </c>
       <c r="H8" t="n" s="570">
-        <v>0.6830765902853447</v>
+        <v>0.7617994628194309</v>
       </c>
       <c r="I8" t="n" s="571">
-        <v>42.668654817141096</v>
+        <v>39.56099734939323</v>
       </c>
       <c r="J8" t="n" s="572">
-        <v>-0.12067096767060825</v>
+        <v>-0.5833849943999982</v>
       </c>
       <c r="K8" t="n" s="573">
-        <v>0.45225905596613064</v>
+        <v>0.2814727424600876</v>
       </c>
       <c r="L8" t="n" s="574">
-        <v>-0.035389015184225575</v>
+        <v>-0.1727373642344771</v>
       </c>
       <c r="M8" t="s" s="575">
         <v>94</v>
@@ -16754,7 +16690,7 @@
         <v>0.04287373876506263</v>
       </c>
       <c r="D11" t="n" s="597">
-        <v>-0.05190868157992545</v>
+        <v>-0.23178008100719044</v>
       </c>
       <c r="E11" t="n" s="598">
         <v>1.4722320445289387</v>
@@ -16769,16 +16705,16 @@
         <v>0.670635591835572</v>
       </c>
       <c r="I11" t="n" s="602">
-        <v>42.668654817141096</v>
+        <v>39.56099734939323</v>
       </c>
       <c r="J11" t="n" s="603">
-        <v>-0.12067096767060825</v>
+        <v>-0.5833849943999982</v>
       </c>
       <c r="K11" t="n" s="604">
-        <v>0.5477409440338694</v>
+        <v>0.7185272575399124</v>
       </c>
       <c r="L11" t="n" s="605">
-        <v>-0.035389015184225575</v>
+        <v>-0.1727373642344771</v>
       </c>
       <c r="M11" t="s" s="606">
         <v>94</v>
@@ -16789,37 +16725,37 @@
         <v>28</v>
       </c>
       <c r="B12" t="n" s="595">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C12" t="n" s="596">
-        <v>0.09478242034498809</v>
+        <v>0.27465381977225306</v>
       </c>
       <c r="D12" t="n" s="597">
-        <v>0.05190868157992545</v>
+        <v>0.23178008100719044</v>
       </c>
       <c r="E12" t="n" s="598">
-        <v>1.4106798625905261</v>
+        <v>1.1424578007389008</v>
       </c>
       <c r="F12" t="n" s="599">
-        <v>0.29414708497017833</v>
+        <v>0.2435728215235889</v>
       </c>
       <c r="G12" t="n" s="600">
-        <v>-0.4935117495953686</v>
+        <v>-0.21249182327492472</v>
       </c>
       <c r="H12" t="n" s="601">
-        <v>0.6830765902853447</v>
+        <v>0.7617994628194309</v>
       </c>
       <c r="I12" t="n" s="602">
-        <v>42.668654817141096</v>
+        <v>39.56099734939323</v>
       </c>
       <c r="J12" t="n" s="603">
-        <v>-0.12067096767060825</v>
+        <v>-0.5833849943999982</v>
       </c>
       <c r="K12" t="n" s="604">
-        <v>0.5477409440338694</v>
+        <v>0.7185272575399124</v>
       </c>
       <c r="L12" t="n" s="605">
-        <v>-0.035389015184225575</v>
+        <v>-0.1727373642344771</v>
       </c>
       <c r="M12" t="s" s="606">
         <v>94</v>
@@ -16882,7 +16818,7 @@
         <v>0.04287373876506263</v>
       </c>
       <c r="D15" t="n" s="628">
-        <v>-0.05190868157992545</v>
+        <v>-0.23178008100719044</v>
       </c>
       <c r="E15" t="n" s="629">
         <v>1.4722320445289387</v>
@@ -16897,16 +16833,16 @@
         <v>0.670635591835572</v>
       </c>
       <c r="I15" t="n" s="633">
-        <v>42.668654817141096</v>
+        <v>39.56099734939323</v>
       </c>
       <c r="J15" t="n" s="634">
-        <v>-0.12067096767060825</v>
+        <v>-0.5833849943999982</v>
       </c>
       <c r="K15" t="n" s="635">
-        <v>0.9045181119322613</v>
+        <v>0.5629454849201752</v>
       </c>
       <c r="L15" t="n" s="636">
-        <v>-0.035389015184225575</v>
+        <v>-0.1727373642344771</v>
       </c>
       <c r="M15" t="s" s="637">
         <v>94</v>
@@ -16917,37 +16853,37 @@
         <v>28</v>
       </c>
       <c r="B16" t="n" s="626">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C16" t="n" s="627">
-        <v>0.09478242034498809</v>
+        <v>0.27465381977225306</v>
       </c>
       <c r="D16" t="n" s="628">
-        <v>0.05190868157992545</v>
+        <v>0.23178008100719044</v>
       </c>
       <c r="E16" t="n" s="629">
-        <v>1.4106798625905261</v>
+        <v>1.1424578007389008</v>
       </c>
       <c r="F16" t="n" s="630">
-        <v>0.29414708497017833</v>
+        <v>0.2435728215235889</v>
       </c>
       <c r="G16" t="n" s="631">
-        <v>-0.4935117495953686</v>
+        <v>-0.21249182327492472</v>
       </c>
       <c r="H16" t="n" s="632">
-        <v>0.6830765902853447</v>
+        <v>0.7617994628194309</v>
       </c>
       <c r="I16" t="n" s="633">
-        <v>42.668654817141096</v>
+        <v>39.56099734939323</v>
       </c>
       <c r="J16" t="n" s="634">
-        <v>-0.12067096767060825</v>
+        <v>-0.5833849943999982</v>
       </c>
       <c r="K16" t="n" s="635">
-        <v>0.9045181119322613</v>
+        <v>0.5629454849201752</v>
       </c>
       <c r="L16" t="n" s="636">
-        <v>-0.035389015184225575</v>
+        <v>-0.1727373642344771</v>
       </c>
       <c r="M16" t="s" s="637">
         <v>94</v>
@@ -17359,7 +17295,7 @@
         <v>29</v>
       </c>
       <c r="F90" t="s" s="673">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G90" t="n" s="674">
         <v>0.7428250324180973</v>
@@ -17388,7 +17324,7 @@
         <v>30</v>
       </c>
       <c r="F91" t="s" s="673">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G91" t="n" s="674">
         <v>2.767237326539527</v>
@@ -17417,7 +17353,7 @@
         <v>29</v>
       </c>
       <c r="F92" t="s" s="673">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G92" t="n" s="674">
         <v>1.9906110408136475</v>
@@ -17446,7 +17382,7 @@
         <v>30</v>
       </c>
       <c r="F93" t="s" s="673">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G93" t="n" s="674">
         <v>1.2745831746021241</v>
@@ -17475,7 +17411,7 @@
         <v>30</v>
       </c>
       <c r="F94" t="s" s="673">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G94" t="n" s="674">
         <v>0.4548622136164107</v>
@@ -17504,7 +17440,7 @@
         <v>30</v>
       </c>
       <c r="F95" t="s" s="673">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G95" t="n" s="674">
         <v>0.16791234567841956</v>
@@ -17533,7 +17469,7 @@
         <v>30</v>
       </c>
       <c r="F96" t="s" s="673">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G96" t="n" s="674">
         <v>0.4548622136164107</v>
@@ -17562,7 +17498,7 @@
         <v>29</v>
       </c>
       <c r="F97" t="s" s="673">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G97" t="n" s="674">
         <v>-1.316367575327888</v>
@@ -17591,7 +17527,7 @@
         <v>29</v>
       </c>
       <c r="F98" t="s" s="673">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G98" t="n" s="674">
         <v>-0.950851107942684</v>
@@ -17620,7 +17556,7 @@
         <v>29</v>
       </c>
       <c r="F99" t="s" s="673">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G99" t="n" s="674">
         <v>0.16791234567841956</v>
@@ -17649,7 +17585,7 @@
         <v>29</v>
       </c>
       <c r="F100" t="s" s="673">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G100" t="n" s="674">
         <v>1.518644033440787</v>
@@ -17678,7 +17614,7 @@
         <v>29</v>
       </c>
       <c r="F101" t="s" s="673">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G101" t="n" s="674">
         <v>-0.342373045721751</v>
@@ -17707,7 +17643,7 @@
         <v>30</v>
       </c>
       <c r="F102" t="s" s="673">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G102" t="n" s="674">
         <v>-0.342373045721751</v>
@@ -17736,7 +17672,7 @@
         <v>29</v>
       </c>
       <c r="F103" t="s" s="673">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G103" t="n" s="674">
         <v>-0.5607739336003862</v>
@@ -17765,7 +17701,7 @@
         <v>29</v>
       </c>
       <c r="F104" t="s" s="673">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G104" t="n" s="674">
         <v>-0.10032552078756582</v>
@@ -17794,7 +17730,7 @@
         <v>29</v>
       </c>
       <c r="F105" t="s" s="673">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G105" t="n" s="674">
         <v>-2.4746913210133505</v>
@@ -17823,7 +17759,7 @@
         <v>29</v>
       </c>
       <c r="F106" t="s" s="673">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G106" t="n" s="674">
         <v>-0.5607739336003862</v>
@@ -17852,7 +17788,7 @@
         <v>29</v>
       </c>
       <c r="F107" t="s" s="673">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G107" t="n" s="674">
         <v>0.4548622136164107</v>
@@ -17881,7 +17817,7 @@
         <v>29</v>
       </c>
       <c r="F108" t="s" s="673">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G108" t="n" s="674">
         <v>-0.950851107942684</v>
@@ -17910,7 +17846,7 @@
         <v>29</v>
       </c>
       <c r="F109" t="s" s="673">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G109" t="n" s="674">
         <v>1.0171941972000345</v>
@@ -17939,7 +17875,7 @@
         <v>29</v>
       </c>
       <c r="F110" t="s" s="673">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G110" t="n" s="674">
         <v>1.9906110408136475</v>
@@ -17968,7 +17904,7 @@
         <v>29</v>
       </c>
       <c r="F111" t="s" s="673">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G111" t="n" s="674">
         <v>-0.7615650634376759</v>
@@ -17997,7 +17933,7 @@
         <v>29</v>
       </c>
       <c r="F112" t="s" s="673">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G112" t="n" s="674">
         <v>0.7428250324180973</v>
@@ -18026,7 +17962,7 @@
         <v>29</v>
       </c>
       <c r="F113" t="s" s="673">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G113" t="n" s="674">
         <v>0.4548622136164107</v>
@@ -18055,7 +17991,7 @@
         <v>30</v>
       </c>
       <c r="F114" t="s" s="673">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G114" t="n" s="674">
         <v>0.16791234567841956</v>
@@ -18084,7 +18020,7 @@
         <v>29</v>
       </c>
       <c r="F115" t="s" s="673">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G115" t="n" s="674">
         <v>-1.6999199590900442</v>
@@ -18098,28 +18034,28 @@
     </row>
     <row r="116">
       <c r="A116" t="n" s="668">
-        <v>10210.0</v>
+        <v>10213.0</v>
       </c>
       <c r="B116" t="n" s="669">
-        <v>1.0277015E7</v>
+        <v>1.027704E7</v>
       </c>
       <c r="C116" t="s" s="670">
         <v>28</v>
       </c>
       <c r="D116" t="s" s="671">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="E116" t="s" s="672">
         <v>29</v>
       </c>
       <c r="F116" t="s" s="673">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G116" t="n" s="674">
-        <v>-3.8623883670548413</v>
+        <v>-0.5607739336003862</v>
       </c>
       <c r="H116" t="n" s="675">
-        <v>1.2998638238179954</v>
+        <v>0.4627625825645366</v>
       </c>
       <c r="I116" t="n" s="676">
         <v>0.8579808987053142</v>
@@ -18127,16 +18063,16 @@
     </row>
     <row r="117">
       <c r="A117" t="n" s="668">
-        <v>10213.0</v>
+        <v>10214.0</v>
       </c>
       <c r="B117" t="n" s="669">
-        <v>1.027704E7</v>
+        <v>1.0277022E7</v>
       </c>
       <c r="C117" t="s" s="670">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D117" t="s" s="671">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="E117" t="s" s="672">
         <v>29</v>
@@ -18145,10 +18081,10 @@
         <v>127</v>
       </c>
       <c r="G117" t="n" s="674">
-        <v>-0.5607739336003862</v>
+        <v>-2.9180839197279487</v>
       </c>
       <c r="H117" t="n" s="675">
-        <v>0.4627625825645366</v>
+        <v>0.7750341503194955</v>
       </c>
       <c r="I117" t="n" s="676">
         <v>0.8579808987053142</v>
@@ -18156,28 +18092,28 @@
     </row>
     <row r="118">
       <c r="A118" t="n" s="668">
-        <v>10214.0</v>
+        <v>10215.0</v>
       </c>
       <c r="B118" t="n" s="669">
-        <v>1.0277022E7</v>
+        <v>9285227.0</v>
       </c>
       <c r="C118" t="s" s="670">
         <v>27</v>
       </c>
       <c r="D118" t="s" s="671">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E118" t="s" s="672">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F118" t="s" s="673">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G118" t="n" s="674">
-        <v>-2.9180839197279487</v>
+        <v>1.0171941972000345</v>
       </c>
       <c r="H118" t="n" s="675">
-        <v>0.7750341503194955</v>
+        <v>0.5126109431279409</v>
       </c>
       <c r="I118" t="n" s="676">
         <v>0.8579808987053142</v>
@@ -18185,28 +18121,28 @@
     </row>
     <row r="119">
       <c r="A119" t="n" s="668">
-        <v>10215.0</v>
+        <v>10216.0</v>
       </c>
       <c r="B119" t="n" s="669">
-        <v>9285227.0</v>
+        <v>1.027672E7</v>
       </c>
       <c r="C119" t="s" s="670">
         <v>27</v>
       </c>
       <c r="D119" t="s" s="671">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E119" t="s" s="672">
         <v>30</v>
       </c>
       <c r="F119" t="s" s="673">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G119" t="n" s="674">
-        <v>1.0171941972000345</v>
+        <v>1.7552152238898662</v>
       </c>
       <c r="H119" t="n" s="675">
-        <v>0.5126109431279409</v>
+        <v>0.49674595254975173</v>
       </c>
       <c r="I119" t="n" s="676">
         <v>0.8579808987053142</v>
@@ -18214,28 +18150,28 @@
     </row>
     <row r="120">
       <c r="A120" t="n" s="668">
-        <v>10216.0</v>
+        <v>10217.0</v>
       </c>
       <c r="B120" t="n" s="669">
-        <v>1.027672E7</v>
+        <v>9805341.0</v>
       </c>
       <c r="C120" t="s" s="670">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D120" t="s" s="671">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E120" t="s" s="672">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F120" t="s" s="673">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G120" t="n" s="674">
-        <v>1.7552152238898662</v>
+        <v>1.2745831746021241</v>
       </c>
       <c r="H120" t="n" s="675">
-        <v>0.49674595254975173</v>
+        <v>0.5041606383649226</v>
       </c>
       <c r="I120" t="n" s="676">
         <v>0.8579808987053142</v>
@@ -18243,28 +18179,28 @@
     </row>
     <row r="121">
       <c r="A121" t="n" s="668">
-        <v>10217.0</v>
+        <v>10218.0</v>
       </c>
       <c r="B121" t="n" s="669">
-        <v>9805341.0</v>
+        <v>9842913.0</v>
       </c>
       <c r="C121" t="s" s="670">
         <v>28</v>
       </c>
       <c r="D121" t="s" s="671">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E121" t="s" s="672">
         <v>29</v>
       </c>
       <c r="F121" t="s" s="673">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G121" t="n" s="674">
-        <v>1.2745831746021241</v>
+        <v>0.4548622136164107</v>
       </c>
       <c r="H121" t="n" s="675">
-        <v>0.5041606383649226</v>
+        <v>0.521441827263477</v>
       </c>
       <c r="I121" t="n" s="676">
         <v>0.8579808987053142</v>
@@ -18272,28 +18208,28 @@
     </row>
     <row r="122">
       <c r="A122" t="n" s="668">
-        <v>10218.0</v>
+        <v>10220.0</v>
       </c>
       <c r="B122" t="n" s="669">
-        <v>9842913.0</v>
+        <v>9760151.0</v>
       </c>
       <c r="C122" t="s" s="670">
         <v>28</v>
       </c>
       <c r="D122" t="s" s="671">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E122" t="s" s="672">
         <v>29</v>
       </c>
       <c r="F122" t="s" s="673">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G122" t="n" s="674">
-        <v>0.4548622136164107</v>
+        <v>-0.950851107942684</v>
       </c>
       <c r="H122" t="n" s="675">
-        <v>0.521441827263477</v>
+        <v>0.44369855541753156</v>
       </c>
       <c r="I122" t="n" s="676">
         <v>0.8579808987053142</v>
@@ -18301,16 +18237,16 @@
     </row>
     <row r="123">
       <c r="A123" t="n" s="668">
-        <v>10220.0</v>
+        <v>10221.0</v>
       </c>
       <c r="B123" t="n" s="669">
-        <v>9760151.0</v>
+        <v>9082496.0</v>
       </c>
       <c r="C123" t="s" s="670">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D123" t="s" s="671">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E123" t="s" s="672">
         <v>29</v>
@@ -18330,28 +18266,28 @@
     </row>
     <row r="124">
       <c r="A124" t="n" s="668">
-        <v>10221.0</v>
+        <v>10223.0</v>
       </c>
       <c r="B124" t="n" s="669">
-        <v>9082496.0</v>
+        <v>9795185.0</v>
       </c>
       <c r="C124" t="s" s="670">
         <v>27</v>
       </c>
       <c r="D124" t="s" s="671">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E124" t="s" s="672">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F124" t="s" s="673">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G124" t="n" s="674">
-        <v>-0.950851107942684</v>
+        <v>1.9906110408136475</v>
       </c>
       <c r="H124" t="n" s="675">
-        <v>0.44369855541753156</v>
+        <v>0.5008514596790399</v>
       </c>
       <c r="I124" t="n" s="676">
         <v>0.8579808987053142</v>
@@ -18359,28 +18295,28 @@
     </row>
     <row r="125">
       <c r="A125" t="n" s="668">
-        <v>10223.0</v>
+        <v>10224.0</v>
       </c>
       <c r="B125" t="n" s="669">
-        <v>9795185.0</v>
+        <v>9368772.0</v>
       </c>
       <c r="C125" t="s" s="670">
         <v>27</v>
       </c>
       <c r="D125" t="s" s="671">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E125" t="s" s="672">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F125" t="s" s="673">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G125" t="n" s="674">
-        <v>1.9906110408136475</v>
+        <v>0.4548622136164107</v>
       </c>
       <c r="H125" t="n" s="675">
-        <v>0.5008514596790399</v>
+        <v>0.521441827263477</v>
       </c>
       <c r="I125" t="n" s="676">
         <v>0.8579808987053142</v>
@@ -18388,28 +18324,28 @@
     </row>
     <row r="126">
       <c r="A126" t="n" s="668">
-        <v>10224.0</v>
+        <v>10226.0</v>
       </c>
       <c r="B126" t="n" s="669">
-        <v>9368772.0</v>
+        <v>1.0310342E7</v>
       </c>
       <c r="C126" t="s" s="670">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D126" t="s" s="671">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E126" t="s" s="672">
         <v>29</v>
       </c>
       <c r="F126" t="s" s="673">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G126" t="n" s="674">
-        <v>0.4548622136164107</v>
+        <v>-2.1650026403541154</v>
       </c>
       <c r="H126" t="n" s="675">
-        <v>0.521441827263477</v>
+        <v>0.5442763960239487</v>
       </c>
       <c r="I126" t="n" s="676">
         <v>0.8579808987053142</v>
@@ -18417,28 +18353,28 @@
     </row>
     <row r="127">
       <c r="A127" t="n" s="668">
-        <v>10226.0</v>
+        <v>10227.0</v>
       </c>
       <c r="B127" t="n" s="669">
-        <v>1.0310342E7</v>
+        <v>9274382.0</v>
       </c>
       <c r="C127" t="s" s="670">
         <v>28</v>
       </c>
       <c r="D127" t="s" s="671">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E127" t="s" s="672">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F127" t="s" s="673">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G127" t="n" s="674">
-        <v>-2.1650026403541154</v>
+        <v>1.2745831746021241</v>
       </c>
       <c r="H127" t="n" s="675">
-        <v>0.5442763960239487</v>
+        <v>0.5041606383649226</v>
       </c>
       <c r="I127" t="n" s="676">
         <v>0.8579808987053142</v>
@@ -18446,28 +18382,28 @@
     </row>
     <row r="128">
       <c r="A128" t="n" s="668">
-        <v>10227.0</v>
+        <v>10228.0</v>
       </c>
       <c r="B128" t="n" s="669">
-        <v>9274382.0</v>
+        <v>1.0310492E7</v>
       </c>
       <c r="C128" t="s" s="670">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D128" t="s" s="671">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="E128" t="s" s="672">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F128" t="s" s="673">
         <v>127</v>
       </c>
       <c r="G128" t="n" s="674">
-        <v>1.2745831746021241</v>
+        <v>-2.4746913210133505</v>
       </c>
       <c r="H128" t="n" s="675">
-        <v>0.5041606383649226</v>
+        <v>0.6209806794261471</v>
       </c>
       <c r="I128" t="n" s="676">
         <v>0.8579808987053142</v>
@@ -18475,28 +18411,28 @@
     </row>
     <row r="129">
       <c r="A129" t="n" s="668">
-        <v>10228.0</v>
+        <v>10230.0</v>
       </c>
       <c r="B129" t="n" s="669">
-        <v>1.0310492E7</v>
+        <v>1.0351992E7</v>
       </c>
       <c r="C129" t="s" s="670">
         <v>27</v>
       </c>
       <c r="D129" t="s" s="671">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E129" t="s" s="672">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F129" t="s" s="673">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G129" t="n" s="674">
-        <v>-2.4746913210133505</v>
+        <v>1.2745831746021241</v>
       </c>
       <c r="H129" t="n" s="675">
-        <v>0.6209806794261471</v>
+        <v>0.5041606383649226</v>
       </c>
       <c r="I129" t="n" s="676">
         <v>0.8579808987053142</v>
@@ -18504,22 +18440,22 @@
     </row>
     <row r="130">
       <c r="A130" t="n" s="668">
-        <v>10230.0</v>
+        <v>10231.0</v>
       </c>
       <c r="B130" t="n" s="669">
-        <v>1.0351992E7</v>
+        <v>1.0276911E7</v>
       </c>
       <c r="C130" t="s" s="670">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D130" t="s" s="671">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E130" t="s" s="672">
         <v>30</v>
       </c>
       <c r="F130" t="s" s="673">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G130" t="n" s="674">
         <v>1.2745831746021241</v>
@@ -18533,28 +18469,28 @@
     </row>
     <row r="131">
       <c r="A131" t="n" s="668">
-        <v>10231.0</v>
+        <v>10232.0</v>
       </c>
       <c r="B131" t="n" s="669">
-        <v>1.0276911E7</v>
+        <v>1.0276974E7</v>
       </c>
       <c r="C131" t="s" s="670">
         <v>28</v>
       </c>
       <c r="D131" t="s" s="671">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E131" t="s" s="672">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F131" t="s" s="673">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G131" t="n" s="674">
-        <v>1.2745831746021241</v>
+        <v>1.0171941972000345</v>
       </c>
       <c r="H131" t="n" s="675">
-        <v>0.5041606383649226</v>
+        <v>0.5126109431279409</v>
       </c>
       <c r="I131" t="n" s="676">
         <v>0.8579808987053142</v>
@@ -18562,16 +18498,16 @@
     </row>
     <row r="132">
       <c r="A132" t="n" s="668">
-        <v>10232.0</v>
+        <v>10237.0</v>
       </c>
       <c r="B132" t="n" s="669">
-        <v>1.0276974E7</v>
+        <v>1.0377688E7</v>
       </c>
       <c r="C132" t="s" s="670">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D132" t="s" s="671">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E132" t="s" s="672">
         <v>29</v>
@@ -18580,10 +18516,10 @@
         <v>127</v>
       </c>
       <c r="G132" t="n" s="674">
-        <v>1.0171941972000345</v>
+        <v>0.7428250324180973</v>
       </c>
       <c r="H132" t="n" s="675">
-        <v>0.5126109431279409</v>
+        <v>0.5201119689447289</v>
       </c>
       <c r="I132" t="n" s="676">
         <v>0.8579808987053142</v>
@@ -18591,59 +18527,30 @@
     </row>
     <row r="133">
       <c r="A133" t="n" s="668">
-        <v>10237.0</v>
+        <v>10238.0</v>
       </c>
       <c r="B133" t="n" s="669">
-        <v>1.0377688E7</v>
+        <v>1.0276953E7</v>
       </c>
       <c r="C133" t="s" s="670">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D133" t="s" s="671">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E133" t="s" s="672">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F133" t="s" s="673">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G133" t="n" s="674">
-        <v>0.7428250324180973</v>
+        <v>0.16791234567841956</v>
       </c>
       <c r="H133" t="n" s="675">
-        <v>0.5201119689447289</v>
+        <v>0.5129374642281377</v>
       </c>
       <c r="I133" t="n" s="676">
-        <v>0.8579808987053142</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n" s="668">
-        <v>10238.0</v>
-      </c>
-      <c r="B134" t="n" s="669">
-        <v>1.0276953E7</v>
-      </c>
-      <c r="C134" t="s" s="670">
-        <v>28</v>
-      </c>
-      <c r="D134" t="s" s="671">
-        <v>113</v>
-      </c>
-      <c r="E134" t="s" s="672">
-        <v>30</v>
-      </c>
-      <c r="F134" t="s" s="673">
-        <v>127</v>
-      </c>
-      <c r="G134" t="n" s="674">
-        <v>0.16791234567841956</v>
-      </c>
-      <c r="H134" t="n" s="675">
-        <v>0.5129374642281377</v>
-      </c>
-      <c r="I134" t="n" s="676">
         <v>0.8579808987053142</v>
       </c>
     </row>
@@ -18679,7 +18586,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="678">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2">
@@ -19487,7 +19394,7 @@
         <v>30</v>
       </c>
       <c r="F90" t="s" s="829">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G90" t="n" s="830">
         <v>2.767237326539527</v>
@@ -19516,7 +19423,7 @@
         <v>30</v>
       </c>
       <c r="F91" t="s" s="829">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G91" t="n" s="830">
         <v>0.4548622136164107</v>
@@ -19545,7 +19452,7 @@
         <v>30</v>
       </c>
       <c r="F92" t="s" s="829">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G92" t="n" s="830">
         <v>0.16791234567841956</v>
@@ -19574,7 +19481,7 @@
         <v>29</v>
       </c>
       <c r="F93" t="s" s="829">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G93" t="n" s="830">
         <v>-0.342373045721751</v>
@@ -19603,7 +19510,7 @@
         <v>30</v>
       </c>
       <c r="F94" t="s" s="829">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G94" t="n" s="830">
         <v>-0.342373045721751</v>
@@ -19632,7 +19539,7 @@
         <v>29</v>
       </c>
       <c r="F95" t="s" s="829">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G95" t="n" s="830">
         <v>-0.10032552078756582</v>
@@ -19661,7 +19568,7 @@
         <v>29</v>
       </c>
       <c r="F96" t="s" s="829">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G96" t="n" s="830">
         <v>-2.4746913210133505</v>
@@ -19690,7 +19597,7 @@
         <v>29</v>
       </c>
       <c r="F97" t="s" s="829">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G97" t="n" s="830">
         <v>0.4548622136164107</v>
@@ -19719,7 +19626,7 @@
         <v>29</v>
       </c>
       <c r="F98" t="s" s="829">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G98" t="n" s="830">
         <v>1.0171941972000345</v>
@@ -19748,7 +19655,7 @@
         <v>29</v>
       </c>
       <c r="F99" t="s" s="829">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G99" t="n" s="830">
         <v>-0.7615650634376759</v>
@@ -19777,7 +19684,7 @@
         <v>29</v>
       </c>
       <c r="F100" t="s" s="829">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G100" t="n" s="830">
         <v>0.7428250324180973</v>
@@ -19806,7 +19713,7 @@
         <v>30</v>
       </c>
       <c r="F101" t="s" s="829">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G101" t="n" s="830">
         <v>0.16791234567841956</v>
@@ -19835,7 +19742,7 @@
         <v>29</v>
       </c>
       <c r="F102" t="s" s="829">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G102" t="n" s="830">
         <v>-1.6999199590900442</v>
@@ -19858,13 +19765,13 @@
         <v>27</v>
       </c>
       <c r="D103" t="s" s="827">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E103" t="s" s="828">
         <v>29</v>
       </c>
       <c r="F103" t="s" s="829">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G103" t="n" s="830">
         <v>-2.9180839197279487</v>
@@ -19887,13 +19794,13 @@
         <v>27</v>
       </c>
       <c r="D104" t="s" s="827">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E104" t="s" s="828">
         <v>30</v>
       </c>
       <c r="F104" t="s" s="829">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G104" t="n" s="830">
         <v>1.0171941972000345</v>
@@ -19922,7 +19829,7 @@
         <v>30</v>
       </c>
       <c r="F105" t="s" s="829">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G105" t="n" s="830">
         <v>1.7552152238898662</v>
@@ -19951,7 +19858,7 @@
         <v>29</v>
       </c>
       <c r="F106" t="s" s="829">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G106" t="n" s="830">
         <v>-0.950851107942684</v>
@@ -19980,7 +19887,7 @@
         <v>30</v>
       </c>
       <c r="F107" t="s" s="829">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G107" t="n" s="830">
         <v>1.9906110408136475</v>
@@ -20009,7 +19916,7 @@
         <v>29</v>
       </c>
       <c r="F108" t="s" s="829">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G108" t="n" s="830">
         <v>0.4548622136164107</v>
@@ -20032,13 +19939,13 @@
         <v>27</v>
       </c>
       <c r="D109" t="s" s="827">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E109" t="s" s="828">
         <v>29</v>
       </c>
       <c r="F109" t="s" s="829">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G109" t="n" s="830">
         <v>-2.4746913210133505</v>
@@ -20061,13 +19968,13 @@
         <v>27</v>
       </c>
       <c r="D110" t="s" s="827">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E110" t="s" s="828">
         <v>30</v>
       </c>
       <c r="F110" t="s" s="829">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G110" t="n" s="830">
         <v>1.2745831746021241</v>
@@ -20096,7 +20003,7 @@
         <v>29</v>
       </c>
       <c r="F111" t="s" s="829">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G111" t="n" s="830">
         <v>0.7428250324180973</v>
@@ -20140,7 +20047,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="834">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2">
@@ -20215,7 +20122,7 @@
         <v>-0.6392255822665631</v>
       </c>
       <c r="D7" t="n" s="878">
-        <v>-0.5133073369795367</v>
+        <v>-0.7330996970835257</v>
       </c>
       <c r="E7" t="n" s="879">
         <v>1.3694481692820315</v>
@@ -20230,19 +20137,19 @@
         <v>0.12040758595446055</v>
       </c>
       <c r="I7" t="n" s="883">
-        <v>27.381216784105927</v>
+        <v>24.27743843234912</v>
       </c>
       <c r="J7" t="n" s="884">
-        <v>-0.9871641475781423</v>
+        <v>-1.5226758210260907</v>
       </c>
       <c r="K7" t="n" s="885">
-        <v>0.16610284049308605</v>
+        <v>0.07038014985543299</v>
       </c>
       <c r="L7" t="n" s="886">
-        <v>-0.34441729368771457</v>
+        <v>-0.5546024919469799</v>
       </c>
       <c r="M7" t="s" s="887">
-        <v>132</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
@@ -20250,40 +20157,40 @@
         <v>71</v>
       </c>
       <c r="B8" t="n" s="876">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="C8" t="n" s="877">
-        <v>-0.12591824528702647</v>
+        <v>0.09387411481696263</v>
       </c>
       <c r="D8" t="n" s="878">
-        <v>0.5133073369795367</v>
+        <v>0.7330996970835257</v>
       </c>
       <c r="E8" t="n" s="879">
-        <v>1.5067072753774182</v>
+        <v>1.219897005772776</v>
       </c>
       <c r="F8" t="n" s="880">
-        <v>0.35513431056082645</v>
+        <v>0.29586848277505134</v>
       </c>
       <c r="G8" t="n" s="881">
-        <v>-0.8361868664086793</v>
+        <v>-0.49786285073314007</v>
       </c>
       <c r="H8" t="n" s="882">
-        <v>0.5843503758346265</v>
+        <v>0.6856110803670653</v>
       </c>
       <c r="I8" t="n" s="883">
-        <v>27.381216784105927</v>
+        <v>24.27743843234912</v>
       </c>
       <c r="J8" t="n" s="884">
-        <v>-0.9871641475781423</v>
+        <v>-1.5226758210260907</v>
       </c>
       <c r="K8" t="n" s="885">
-        <v>0.16610284049308605</v>
+        <v>0.07038014985543299</v>
       </c>
       <c r="L8" t="n" s="886">
-        <v>-0.34441729368771457</v>
+        <v>-0.5546024919469799</v>
       </c>
       <c r="M8" t="s" s="887">
-        <v>132</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
@@ -20343,7 +20250,7 @@
         <v>-0.6392255822665631</v>
       </c>
       <c r="D11" t="n" s="909">
-        <v>-0.5133073369795367</v>
+        <v>-0.7330996970835257</v>
       </c>
       <c r="E11" t="n" s="910">
         <v>1.3694481692820315</v>
@@ -20358,19 +20265,19 @@
         <v>0.12040758595446055</v>
       </c>
       <c r="I11" t="n" s="914">
-        <v>27.381216784105927</v>
+        <v>24.27743843234912</v>
       </c>
       <c r="J11" t="n" s="915">
-        <v>-0.9871641475781423</v>
+        <v>-1.5226758210260907</v>
       </c>
       <c r="K11" t="n" s="916">
-        <v>0.833897159506914</v>
+        <v>0.9296198501445669</v>
       </c>
       <c r="L11" t="n" s="917">
-        <v>-0.34441729368771457</v>
+        <v>-0.5546024919469799</v>
       </c>
       <c r="M11" t="s" s="918">
-        <v>132</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12">
@@ -20378,40 +20285,40 @@
         <v>71</v>
       </c>
       <c r="B12" t="n" s="907">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="C12" t="n" s="908">
-        <v>-0.12591824528702647</v>
+        <v>0.09387411481696263</v>
       </c>
       <c r="D12" t="n" s="909">
-        <v>0.5133073369795367</v>
+        <v>0.7330996970835257</v>
       </c>
       <c r="E12" t="n" s="910">
-        <v>1.5067072753774182</v>
+        <v>1.219897005772776</v>
       </c>
       <c r="F12" t="n" s="911">
-        <v>0.35513431056082645</v>
+        <v>0.29586848277505134</v>
       </c>
       <c r="G12" t="n" s="912">
-        <v>-0.8361868664086793</v>
+        <v>-0.49786285073314007</v>
       </c>
       <c r="H12" t="n" s="913">
-        <v>0.5843503758346265</v>
+        <v>0.6856110803670653</v>
       </c>
       <c r="I12" t="n" s="914">
-        <v>27.381216784105927</v>
+        <v>24.27743843234912</v>
       </c>
       <c r="J12" t="n" s="915">
-        <v>-0.9871641475781423</v>
+        <v>-1.5226758210260907</v>
       </c>
       <c r="K12" t="n" s="916">
-        <v>0.833897159506914</v>
+        <v>0.9296198501445669</v>
       </c>
       <c r="L12" t="n" s="917">
-        <v>-0.34441729368771457</v>
+        <v>-0.5546024919469799</v>
       </c>
       <c r="M12" t="s" s="918">
-        <v>132</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13">
@@ -20471,7 +20378,7 @@
         <v>-0.6392255822665631</v>
       </c>
       <c r="D15" t="n" s="940">
-        <v>-0.5133073369795367</v>
+        <v>-0.7330996970835257</v>
       </c>
       <c r="E15" t="n" s="941">
         <v>1.3694481692820315</v>
@@ -20486,19 +20393,19 @@
         <v>0.12040758595446055</v>
       </c>
       <c r="I15" t="n" s="945">
-        <v>27.381216784105927</v>
+        <v>24.27743843234912</v>
       </c>
       <c r="J15" t="n" s="946">
-        <v>-0.9871641475781423</v>
+        <v>-1.5226758210260907</v>
       </c>
       <c r="K15" t="n" s="947">
-        <v>0.3322056809861721</v>
+        <v>0.14076029971086598</v>
       </c>
       <c r="L15" t="n" s="948">
-        <v>-0.34441729368771457</v>
+        <v>-0.5546024919469799</v>
       </c>
       <c r="M15" t="s" s="949">
-        <v>132</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16">
@@ -20506,40 +20413,40 @@
         <v>71</v>
       </c>
       <c r="B16" t="n" s="938">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="C16" t="n" s="939">
-        <v>-0.12591824528702647</v>
+        <v>0.09387411481696263</v>
       </c>
       <c r="D16" t="n" s="940">
-        <v>0.5133073369795367</v>
+        <v>0.7330996970835257</v>
       </c>
       <c r="E16" t="n" s="941">
-        <v>1.5067072753774182</v>
+        <v>1.219897005772776</v>
       </c>
       <c r="F16" t="n" s="942">
-        <v>0.35513431056082645</v>
+        <v>0.29586848277505134</v>
       </c>
       <c r="G16" t="n" s="943">
-        <v>-0.8361868664086793</v>
+        <v>-0.49786285073314007</v>
       </c>
       <c r="H16" t="n" s="944">
-        <v>0.5843503758346265</v>
+        <v>0.6856110803670653</v>
       </c>
       <c r="I16" t="n" s="945">
-        <v>27.381216784105927</v>
+        <v>24.27743843234912</v>
       </c>
       <c r="J16" t="n" s="946">
-        <v>-0.9871641475781423</v>
+        <v>-1.5226758210260907</v>
       </c>
       <c r="K16" t="n" s="947">
-        <v>0.3322056809861721</v>
+        <v>0.14076029971086598</v>
       </c>
       <c r="L16" t="n" s="948">
-        <v>-0.34441729368771457</v>
+        <v>-0.5546024919469799</v>
       </c>
       <c r="M16" t="s" s="949">
-        <v>132</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17">
@@ -20948,7 +20855,7 @@
         <v>29</v>
       </c>
       <c r="F90" t="s" s="985">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G90" t="n" s="986">
         <v>0.7428250324180973</v>
@@ -20977,7 +20884,7 @@
         <v>29</v>
       </c>
       <c r="F91" t="s" s="985">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G91" t="n" s="986">
         <v>1.9906110408136475</v>
@@ -21006,7 +20913,7 @@
         <v>29</v>
       </c>
       <c r="F92" t="s" s="985">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G92" t="n" s="986">
         <v>-1.316367575327888</v>
@@ -21035,7 +20942,7 @@
         <v>29</v>
       </c>
       <c r="F93" t="s" s="985">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G93" t="n" s="986">
         <v>-0.950851107942684</v>
@@ -21064,7 +20971,7 @@
         <v>29</v>
       </c>
       <c r="F94" t="s" s="985">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G94" t="n" s="986">
         <v>0.16791234567841956</v>
@@ -21093,7 +21000,7 @@
         <v>29</v>
       </c>
       <c r="F95" t="s" s="985">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G95" t="n" s="986">
         <v>1.518644033440787</v>
@@ -21122,7 +21029,7 @@
         <v>29</v>
       </c>
       <c r="F96" t="s" s="985">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G96" t="n" s="986">
         <v>-0.342373045721751</v>
@@ -21151,7 +21058,7 @@
         <v>29</v>
       </c>
       <c r="F97" t="s" s="985">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G97" t="n" s="986">
         <v>-0.5607739336003862</v>
@@ -21180,7 +21087,7 @@
         <v>29</v>
       </c>
       <c r="F98" t="s" s="985">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G98" t="n" s="986">
         <v>-0.10032552078756582</v>
@@ -21209,7 +21116,7 @@
         <v>29</v>
       </c>
       <c r="F99" t="s" s="985">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G99" t="n" s="986">
         <v>-2.4746913210133505</v>
@@ -21238,7 +21145,7 @@
         <v>29</v>
       </c>
       <c r="F100" t="s" s="985">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G100" t="n" s="986">
         <v>-0.5607739336003862</v>
@@ -21267,7 +21174,7 @@
         <v>29</v>
       </c>
       <c r="F101" t="s" s="985">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G101" t="n" s="986">
         <v>0.4548622136164107</v>
@@ -21296,7 +21203,7 @@
         <v>29</v>
       </c>
       <c r="F102" t="s" s="985">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G102" t="n" s="986">
         <v>-0.950851107942684</v>
@@ -21325,7 +21232,7 @@
         <v>29</v>
       </c>
       <c r="F103" t="s" s="985">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G103" t="n" s="986">
         <v>1.0171941972000345</v>
@@ -21354,7 +21261,7 @@
         <v>29</v>
       </c>
       <c r="F104" t="s" s="985">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G104" t="n" s="986">
         <v>1.9906110408136475</v>
@@ -21383,7 +21290,7 @@
         <v>29</v>
       </c>
       <c r="F105" t="s" s="985">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G105" t="n" s="986">
         <v>-0.7615650634376759</v>
@@ -21412,7 +21319,7 @@
         <v>29</v>
       </c>
       <c r="F106" t="s" s="985">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G106" t="n" s="986">
         <v>0.7428250324180973</v>
@@ -21441,7 +21348,7 @@
         <v>29</v>
       </c>
       <c r="F107" t="s" s="985">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G107" t="n" s="986">
         <v>0.4548622136164107</v>
@@ -21470,7 +21377,7 @@
         <v>29</v>
       </c>
       <c r="F108" t="s" s="985">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G108" t="n" s="986">
         <v>-1.6999199590900442</v>
@@ -21484,28 +21391,28 @@
     </row>
     <row r="109">
       <c r="A109" t="n" s="980">
-        <v>10210.0</v>
+        <v>10213.0</v>
       </c>
       <c r="B109" t="n" s="981">
-        <v>1.0277015E7</v>
+        <v>1.027704E7</v>
       </c>
       <c r="C109" t="s" s="982">
         <v>28</v>
       </c>
       <c r="D109" t="s" s="983">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="E109" t="s" s="984">
         <v>29</v>
       </c>
       <c r="F109" t="s" s="985">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G109" t="n" s="986">
-        <v>-3.8623883670548413</v>
+        <v>-0.5607739336003862</v>
       </c>
       <c r="H109" t="n" s="987">
-        <v>1.2998638238179954</v>
+        <v>0.4627625825645366</v>
       </c>
       <c r="I109" t="n" s="988">
         <v>0.8579808987053142</v>
@@ -21513,16 +21420,16 @@
     </row>
     <row r="110">
       <c r="A110" t="n" s="980">
-        <v>10213.0</v>
+        <v>10214.0</v>
       </c>
       <c r="B110" t="n" s="981">
-        <v>1.027704E7</v>
+        <v>1.0277022E7</v>
       </c>
       <c r="C110" t="s" s="982">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D110" t="s" s="983">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="E110" t="s" s="984">
         <v>29</v>
@@ -21531,10 +21438,10 @@
         <v>127</v>
       </c>
       <c r="G110" t="n" s="986">
-        <v>-0.5607739336003862</v>
+        <v>-2.9180839197279487</v>
       </c>
       <c r="H110" t="n" s="987">
-        <v>0.4627625825645366</v>
+        <v>0.7750341503194955</v>
       </c>
       <c r="I110" t="n" s="988">
         <v>0.8579808987053142</v>
@@ -21542,28 +21449,28 @@
     </row>
     <row r="111">
       <c r="A111" t="n" s="980">
-        <v>10214.0</v>
+        <v>10217.0</v>
       </c>
       <c r="B111" t="n" s="981">
-        <v>1.0277022E7</v>
+        <v>9805341.0</v>
       </c>
       <c r="C111" t="s" s="982">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D111" t="s" s="983">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="E111" t="s" s="984">
         <v>29</v>
       </c>
       <c r="F111" t="s" s="985">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G111" t="n" s="986">
-        <v>-2.9180839197279487</v>
+        <v>1.2745831746021241</v>
       </c>
       <c r="H111" t="n" s="987">
-        <v>0.7750341503194955</v>
+        <v>0.5041606383649226</v>
       </c>
       <c r="I111" t="n" s="988">
         <v>0.8579808987053142</v>
@@ -21571,28 +21478,28 @@
     </row>
     <row r="112">
       <c r="A112" t="n" s="980">
-        <v>10217.0</v>
+        <v>10218.0</v>
       </c>
       <c r="B112" t="n" s="981">
-        <v>9805341.0</v>
+        <v>9842913.0</v>
       </c>
       <c r="C112" t="s" s="982">
         <v>28</v>
       </c>
       <c r="D112" t="s" s="983">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E112" t="s" s="984">
         <v>29</v>
       </c>
       <c r="F112" t="s" s="985">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G112" t="n" s="986">
-        <v>1.2745831746021241</v>
+        <v>0.4548622136164107</v>
       </c>
       <c r="H112" t="n" s="987">
-        <v>0.5041606383649226</v>
+        <v>0.521441827263477</v>
       </c>
       <c r="I112" t="n" s="988">
         <v>0.8579808987053142</v>
@@ -21600,28 +21507,28 @@
     </row>
     <row r="113">
       <c r="A113" t="n" s="980">
-        <v>10218.0</v>
+        <v>10220.0</v>
       </c>
       <c r="B113" t="n" s="981">
-        <v>9842913.0</v>
+        <v>9760151.0</v>
       </c>
       <c r="C113" t="s" s="982">
         <v>28</v>
       </c>
       <c r="D113" t="s" s="983">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E113" t="s" s="984">
         <v>29</v>
       </c>
       <c r="F113" t="s" s="985">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G113" t="n" s="986">
-        <v>0.4548622136164107</v>
+        <v>-0.950851107942684</v>
       </c>
       <c r="H113" t="n" s="987">
-        <v>0.521441827263477</v>
+        <v>0.44369855541753156</v>
       </c>
       <c r="I113" t="n" s="988">
         <v>0.8579808987053142</v>
@@ -21629,16 +21536,16 @@
     </row>
     <row r="114">
       <c r="A114" t="n" s="980">
-        <v>10220.0</v>
+        <v>10221.0</v>
       </c>
       <c r="B114" t="n" s="981">
-        <v>9760151.0</v>
+        <v>9082496.0</v>
       </c>
       <c r="C114" t="s" s="982">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D114" t="s" s="983">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E114" t="s" s="984">
         <v>29</v>
@@ -21658,28 +21565,28 @@
     </row>
     <row r="115">
       <c r="A115" t="n" s="980">
-        <v>10221.0</v>
+        <v>10224.0</v>
       </c>
       <c r="B115" t="n" s="981">
-        <v>9082496.0</v>
+        <v>9368772.0</v>
       </c>
       <c r="C115" t="s" s="982">
         <v>27</v>
       </c>
       <c r="D115" t="s" s="983">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="E115" t="s" s="984">
         <v>29</v>
       </c>
       <c r="F115" t="s" s="985">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G115" t="n" s="986">
-        <v>-0.950851107942684</v>
+        <v>0.4548622136164107</v>
       </c>
       <c r="H115" t="n" s="987">
-        <v>0.44369855541753156</v>
+        <v>0.521441827263477</v>
       </c>
       <c r="I115" t="n" s="988">
         <v>0.8579808987053142</v>
@@ -21687,28 +21594,28 @@
     </row>
     <row r="116">
       <c r="A116" t="n" s="980">
-        <v>10224.0</v>
+        <v>10226.0</v>
       </c>
       <c r="B116" t="n" s="981">
-        <v>9368772.0</v>
+        <v>1.0310342E7</v>
       </c>
       <c r="C116" t="s" s="982">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D116" t="s" s="983">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E116" t="s" s="984">
         <v>29</v>
       </c>
       <c r="F116" t="s" s="985">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G116" t="n" s="986">
-        <v>0.4548622136164107</v>
+        <v>-2.1650026403541154</v>
       </c>
       <c r="H116" t="n" s="987">
-        <v>0.521441827263477</v>
+        <v>0.5442763960239487</v>
       </c>
       <c r="I116" t="n" s="988">
         <v>0.8579808987053142</v>
@@ -21716,16 +21623,16 @@
     </row>
     <row r="117">
       <c r="A117" t="n" s="980">
-        <v>10226.0</v>
+        <v>10228.0</v>
       </c>
       <c r="B117" t="n" s="981">
-        <v>1.0310342E7</v>
+        <v>1.0310492E7</v>
       </c>
       <c r="C117" t="s" s="982">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D117" t="s" s="983">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E117" t="s" s="984">
         <v>29</v>
@@ -21734,10 +21641,10 @@
         <v>127</v>
       </c>
       <c r="G117" t="n" s="986">
-        <v>-2.1650026403541154</v>
+        <v>-2.4746913210133505</v>
       </c>
       <c r="H117" t="n" s="987">
-        <v>0.5442763960239487</v>
+        <v>0.6209806794261471</v>
       </c>
       <c r="I117" t="n" s="988">
         <v>0.8579808987053142</v>
@@ -21745,28 +21652,28 @@
     </row>
     <row r="118">
       <c r="A118" t="n" s="980">
-        <v>10228.0</v>
+        <v>10232.0</v>
       </c>
       <c r="B118" t="n" s="981">
-        <v>1.0310492E7</v>
+        <v>1.0276974E7</v>
       </c>
       <c r="C118" t="s" s="982">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D118" t="s" s="983">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="E118" t="s" s="984">
         <v>29</v>
       </c>
       <c r="F118" t="s" s="985">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G118" t="n" s="986">
-        <v>-2.4746913210133505</v>
+        <v>1.0171941972000345</v>
       </c>
       <c r="H118" t="n" s="987">
-        <v>0.6209806794261471</v>
+        <v>0.5126109431279409</v>
       </c>
       <c r="I118" t="n" s="988">
         <v>0.8579808987053142</v>
@@ -21774,16 +21681,16 @@
     </row>
     <row r="119">
       <c r="A119" t="n" s="980">
-        <v>10232.0</v>
+        <v>10237.0</v>
       </c>
       <c r="B119" t="n" s="981">
-        <v>1.0276974E7</v>
+        <v>1.0377688E7</v>
       </c>
       <c r="C119" t="s" s="982">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D119" t="s" s="983">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E119" t="s" s="984">
         <v>29</v>
@@ -21792,41 +21699,12 @@
         <v>127</v>
       </c>
       <c r="G119" t="n" s="986">
-        <v>1.0171941972000345</v>
+        <v>0.7428250324180973</v>
       </c>
       <c r="H119" t="n" s="987">
-        <v>0.5126109431279409</v>
+        <v>0.5201119689447289</v>
       </c>
       <c r="I119" t="n" s="988">
-        <v>0.8579808987053142</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n" s="980">
-        <v>10237.0</v>
-      </c>
-      <c r="B120" t="n" s="981">
-        <v>1.0377688E7</v>
-      </c>
-      <c r="C120" t="s" s="982">
-        <v>27</v>
-      </c>
-      <c r="D120" t="s" s="983">
-        <v>111</v>
-      </c>
-      <c r="E120" t="s" s="984">
-        <v>29</v>
-      </c>
-      <c r="F120" t="s" s="985">
-        <v>128</v>
-      </c>
-      <c r="G120" t="n" s="986">
-        <v>0.7428250324180973</v>
-      </c>
-      <c r="H120" t="n" s="987">
-        <v>0.5201119689447289</v>
-      </c>
-      <c r="I120" t="n" s="988">
         <v>0.8579808987053142</v>
       </c>
     </row>
@@ -21862,7 +21740,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="990">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2">
@@ -22670,7 +22548,7 @@
         <v>30</v>
       </c>
       <c r="F90" t="s" s="1141">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G90" t="n" s="1142">
         <v>1.2745831746021241</v>
@@ -22699,7 +22577,7 @@
         <v>30</v>
       </c>
       <c r="F91" t="s" s="1141">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G91" t="n" s="1142">
         <v>0.4548622136164107</v>
@@ -22728,7 +22606,7 @@
         <v>29</v>
       </c>
       <c r="F92" t="s" s="1141">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G92" t="n" s="1142">
         <v>-0.342373045721751</v>
@@ -22757,7 +22635,7 @@
         <v>29</v>
       </c>
       <c r="F93" t="s" s="1141">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G93" t="n" s="1142">
         <v>-0.10032552078756582</v>
@@ -22786,7 +22664,7 @@
         <v>29</v>
       </c>
       <c r="F94" t="s" s="1141">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G94" t="n" s="1142">
         <v>-2.4746913210133505</v>
@@ -22815,7 +22693,7 @@
         <v>29</v>
       </c>
       <c r="F95" t="s" s="1141">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G95" t="n" s="1142">
         <v>0.4548622136164107</v>
@@ -22844,7 +22722,7 @@
         <v>29</v>
       </c>
       <c r="F96" t="s" s="1141">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G96" t="n" s="1142">
         <v>1.0171941972000345</v>
@@ -22873,7 +22751,7 @@
         <v>29</v>
       </c>
       <c r="F97" t="s" s="1141">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G97" t="n" s="1142">
         <v>-0.7615650634376759</v>
@@ -22902,7 +22780,7 @@
         <v>29</v>
       </c>
       <c r="F98" t="s" s="1141">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G98" t="n" s="1142">
         <v>0.7428250324180973</v>
@@ -22931,7 +22809,7 @@
         <v>29</v>
       </c>
       <c r="F99" t="s" s="1141">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G99" t="n" s="1142">
         <v>-1.6999199590900442</v>
@@ -22954,13 +22832,13 @@
         <v>27</v>
       </c>
       <c r="D100" t="s" s="1139">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E100" t="s" s="1140">
         <v>29</v>
       </c>
       <c r="F100" t="s" s="1141">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G100" t="n" s="1142">
         <v>-2.9180839197279487</v>
@@ -22989,7 +22867,7 @@
         <v>29</v>
       </c>
       <c r="F101" t="s" s="1141">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G101" t="n" s="1142">
         <v>-0.950851107942684</v>
@@ -23018,7 +22896,7 @@
         <v>29</v>
       </c>
       <c r="F102" t="s" s="1141">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G102" t="n" s="1142">
         <v>0.4548622136164107</v>
@@ -23047,7 +22925,7 @@
         <v>30</v>
       </c>
       <c r="F103" t="s" s="1141">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G103" t="n" s="1142">
         <v>1.2745831746021241</v>
@@ -23070,13 +22948,13 @@
         <v>27</v>
       </c>
       <c r="D104" t="s" s="1139">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E104" t="s" s="1140">
         <v>29</v>
       </c>
       <c r="F104" t="s" s="1141">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G104" t="n" s="1142">
         <v>-2.4746913210133505</v>
@@ -23105,7 +22983,7 @@
         <v>30</v>
       </c>
       <c r="F105" t="s" s="1141">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G105" t="n" s="1142">
         <v>1.2745831746021241</v>
@@ -23134,7 +23012,7 @@
         <v>29</v>
       </c>
       <c r="F106" t="s" s="1141">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G106" t="n" s="1142">
         <v>0.7428250324180973</v>
@@ -23163,7 +23041,7 @@
         <v>30</v>
       </c>
       <c r="F107" t="s" s="1141">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G107" t="n" s="1142">
         <v>0.16791234567841956</v>
@@ -23207,7 +23085,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1146">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2">
@@ -23282,7 +23160,7 @@
         <v>1.028128313588522</v>
       </c>
       <c r="D7" t="n" s="1190">
-        <v>1.1540465588755484</v>
+        <v>0.9342541987715594</v>
       </c>
       <c r="E7" t="n" s="1191">
         <v>1.014102996977359</v>
@@ -23297,19 +23175,19 @@
         <v>1.7041969782400948</v>
       </c>
       <c r="I7" t="n" s="1195">
-        <v>22.504233839230416</v>
+        <v>19.29147225504692</v>
       </c>
       <c r="J7" t="n" s="1196">
-        <v>2.353787813997304</v>
+        <v>2.079690462947618</v>
       </c>
       <c r="K7" t="n" s="1197">
-        <v>0.9861464036770609</v>
+        <v>0.9744393933423222</v>
       </c>
       <c r="L7" t="n" s="1198">
-        <v>0.8177363828717306</v>
+        <v>0.7830775786653383</v>
       </c>
       <c r="M7" t="s" s="1199">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
@@ -23317,40 +23195,40 @@
         <v>71</v>
       </c>
       <c r="B8" t="n" s="1188">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="C8" t="n" s="1189">
-        <v>-0.12591824528702647</v>
+        <v>0.09387411481696263</v>
       </c>
       <c r="D8" t="n" s="1190">
-        <v>-1.1540465588755484</v>
+        <v>-0.9342541987715594</v>
       </c>
       <c r="E8" t="n" s="1191">
-        <v>1.5067072753774182</v>
+        <v>1.219897005772776</v>
       </c>
       <c r="F8" t="n" s="1192">
-        <v>0.35513431056082645</v>
+        <v>0.29586848277505134</v>
       </c>
       <c r="G8" t="n" s="1193">
-        <v>-0.8361868664086793</v>
+        <v>-0.49786285073314007</v>
       </c>
       <c r="H8" t="n" s="1194">
-        <v>0.5843503758346265</v>
+        <v>0.6856110803670653</v>
       </c>
       <c r="I8" t="n" s="1195">
-        <v>22.504233839230416</v>
+        <v>19.29147225504692</v>
       </c>
       <c r="J8" t="n" s="1196">
-        <v>2.353787813997304</v>
+        <v>2.079690462947618</v>
       </c>
       <c r="K8" t="n" s="1197">
-        <v>0.9861464036770609</v>
+        <v>0.9744393933423222</v>
       </c>
       <c r="L8" t="n" s="1198">
-        <v>0.8177363828717306</v>
+        <v>0.7830775786653383</v>
       </c>
       <c r="M8" t="s" s="1199">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
@@ -23410,7 +23288,7 @@
         <v>1.028128313588522</v>
       </c>
       <c r="D11" t="n" s="1221">
-        <v>1.1540465588755484</v>
+        <v>0.9342541987715594</v>
       </c>
       <c r="E11" t="n" s="1222">
         <v>1.014102996977359</v>
@@ -23425,19 +23303,19 @@
         <v>1.7041969782400948</v>
       </c>
       <c r="I11" t="n" s="1226">
-        <v>22.504233839230416</v>
+        <v>19.29147225504692</v>
       </c>
       <c r="J11" t="n" s="1227">
-        <v>2.353787813997304</v>
+        <v>2.079690462947618</v>
       </c>
       <c r="K11" t="n" s="1228">
-        <v>0.013853596322939076</v>
+        <v>0.02556060665767781</v>
       </c>
       <c r="L11" t="n" s="1229">
-        <v>0.8177363828717306</v>
+        <v>0.7830775786653383</v>
       </c>
       <c r="M11" t="s" s="1230">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12">
@@ -23445,40 +23323,40 @@
         <v>71</v>
       </c>
       <c r="B12" t="n" s="1219">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="C12" t="n" s="1220">
-        <v>-0.12591824528702647</v>
+        <v>0.09387411481696263</v>
       </c>
       <c r="D12" t="n" s="1221">
-        <v>-1.1540465588755484</v>
+        <v>-0.9342541987715594</v>
       </c>
       <c r="E12" t="n" s="1222">
-        <v>1.5067072753774182</v>
+        <v>1.219897005772776</v>
       </c>
       <c r="F12" t="n" s="1223">
-        <v>0.35513431056082645</v>
+        <v>0.29586848277505134</v>
       </c>
       <c r="G12" t="n" s="1224">
-        <v>-0.8361868664086793</v>
+        <v>-0.49786285073314007</v>
       </c>
       <c r="H12" t="n" s="1225">
-        <v>0.5843503758346265</v>
+        <v>0.6856110803670653</v>
       </c>
       <c r="I12" t="n" s="1226">
-        <v>22.504233839230416</v>
+        <v>19.29147225504692</v>
       </c>
       <c r="J12" t="n" s="1227">
-        <v>2.353787813997304</v>
+        <v>2.079690462947618</v>
       </c>
       <c r="K12" t="n" s="1228">
-        <v>0.013853596322939076</v>
+        <v>0.02556060665767781</v>
       </c>
       <c r="L12" t="n" s="1229">
-        <v>0.8177363828717306</v>
+        <v>0.7830775786653383</v>
       </c>
       <c r="M12" t="s" s="1230">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13">
@@ -23538,7 +23416,7 @@
         <v>1.028128313588522</v>
       </c>
       <c r="D15" t="n" s="1252">
-        <v>1.1540465588755484</v>
+        <v>0.9342541987715594</v>
       </c>
       <c r="E15" t="n" s="1253">
         <v>1.014102996977359</v>
@@ -23553,19 +23431,19 @@
         <v>1.7041969782400948</v>
       </c>
       <c r="I15" t="n" s="1257">
-        <v>22.504233839230416</v>
+        <v>19.29147225504692</v>
       </c>
       <c r="J15" t="n" s="1258">
-        <v>2.353787813997304</v>
+        <v>2.079690462947618</v>
       </c>
       <c r="K15" t="n" s="1259">
-        <v>0.02770719264587815</v>
+        <v>0.05112121331535562</v>
       </c>
       <c r="L15" t="n" s="1260">
-        <v>0.8177363828717306</v>
+        <v>0.7830775786653383</v>
       </c>
       <c r="M15" t="s" s="1261">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16">
@@ -23573,40 +23451,40 @@
         <v>71</v>
       </c>
       <c r="B16" t="n" s="1250">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="C16" t="n" s="1251">
-        <v>-0.12591824528702647</v>
+        <v>0.09387411481696263</v>
       </c>
       <c r="D16" t="n" s="1252">
-        <v>-1.1540465588755484</v>
+        <v>-0.9342541987715594</v>
       </c>
       <c r="E16" t="n" s="1253">
-        <v>1.5067072753774182</v>
+        <v>1.219897005772776</v>
       </c>
       <c r="F16" t="n" s="1254">
-        <v>0.35513431056082645</v>
+        <v>0.29586848277505134</v>
       </c>
       <c r="G16" t="n" s="1255">
-        <v>-0.8361868664086793</v>
+        <v>-0.49786285073314007</v>
       </c>
       <c r="H16" t="n" s="1256">
-        <v>0.5843503758346265</v>
+        <v>0.6856110803670653</v>
       </c>
       <c r="I16" t="n" s="1257">
-        <v>22.504233839230416</v>
+        <v>19.29147225504692</v>
       </c>
       <c r="J16" t="n" s="1258">
-        <v>2.353787813997304</v>
+        <v>2.079690462947618</v>
       </c>
       <c r="K16" t="n" s="1259">
-        <v>0.02770719264587815</v>
+        <v>0.05112121331535562</v>
       </c>
       <c r="L16" t="n" s="1260">
-        <v>0.8177363828717306</v>
+        <v>0.7830775786653383</v>
       </c>
       <c r="M16" t="s" s="1261">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17">
@@ -24015,7 +23893,7 @@
         <v>29</v>
       </c>
       <c r="F90" t="s" s="1297">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G90" t="n" s="1298">
         <v>0.7428250324180973</v>
@@ -24044,7 +23922,7 @@
         <v>30</v>
       </c>
       <c r="F91" t="s" s="1297">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G91" t="n" s="1298">
         <v>2.767237326539527</v>
@@ -24073,7 +23951,7 @@
         <v>29</v>
       </c>
       <c r="F92" t="s" s="1297">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G92" t="n" s="1298">
         <v>1.9906110408136475</v>
@@ -24102,7 +23980,7 @@
         <v>30</v>
       </c>
       <c r="F93" t="s" s="1297">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G93" t="n" s="1298">
         <v>0.4548622136164107</v>
@@ -24131,7 +24009,7 @@
         <v>30</v>
       </c>
       <c r="F94" t="s" s="1297">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G94" t="n" s="1298">
         <v>0.16791234567841956</v>
@@ -24160,7 +24038,7 @@
         <v>29</v>
       </c>
       <c r="F95" t="s" s="1297">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G95" t="n" s="1298">
         <v>-1.316367575327888</v>
@@ -24189,7 +24067,7 @@
         <v>29</v>
       </c>
       <c r="F96" t="s" s="1297">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G96" t="n" s="1298">
         <v>-0.950851107942684</v>
@@ -24218,7 +24096,7 @@
         <v>29</v>
       </c>
       <c r="F97" t="s" s="1297">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G97" t="n" s="1298">
         <v>0.16791234567841956</v>
@@ -24247,7 +24125,7 @@
         <v>29</v>
       </c>
       <c r="F98" t="s" s="1297">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G98" t="n" s="1298">
         <v>1.518644033440787</v>
@@ -24276,7 +24154,7 @@
         <v>30</v>
       </c>
       <c r="F99" t="s" s="1297">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G99" t="n" s="1298">
         <v>-0.342373045721751</v>
@@ -24305,7 +24183,7 @@
         <v>29</v>
       </c>
       <c r="F100" t="s" s="1297">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G100" t="n" s="1298">
         <v>-0.5607739336003862</v>
@@ -24334,7 +24212,7 @@
         <v>29</v>
       </c>
       <c r="F101" t="s" s="1297">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G101" t="n" s="1298">
         <v>-0.5607739336003862</v>
@@ -24363,7 +24241,7 @@
         <v>29</v>
       </c>
       <c r="F102" t="s" s="1297">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G102" t="n" s="1298">
         <v>-0.950851107942684</v>
@@ -24392,7 +24270,7 @@
         <v>29</v>
       </c>
       <c r="F103" t="s" s="1297">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G103" t="n" s="1298">
         <v>1.9906110408136475</v>
@@ -24421,7 +24299,7 @@
         <v>29</v>
       </c>
       <c r="F104" t="s" s="1297">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G104" t="n" s="1298">
         <v>0.4548622136164107</v>
@@ -24450,7 +24328,7 @@
         <v>30</v>
       </c>
       <c r="F105" t="s" s="1297">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G105" t="n" s="1298">
         <v>0.16791234567841956</v>
@@ -24464,28 +24342,28 @@
     </row>
     <row r="106">
       <c r="A106" t="n" s="1292">
-        <v>10210.0</v>
+        <v>10213.0</v>
       </c>
       <c r="B106" t="n" s="1293">
-        <v>1.0277015E7</v>
+        <v>1.027704E7</v>
       </c>
       <c r="C106" t="s" s="1294">
         <v>28</v>
       </c>
       <c r="D106" t="s" s="1295">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="E106" t="s" s="1296">
         <v>29</v>
       </c>
       <c r="F106" t="s" s="1297">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G106" t="n" s="1298">
-        <v>-3.8623883670548413</v>
+        <v>-0.5607739336003862</v>
       </c>
       <c r="H106" t="n" s="1299">
-        <v>1.2998638238179954</v>
+        <v>0.4627625825645366</v>
       </c>
       <c r="I106" t="n" s="1300">
         <v>0.8579808987053142</v>
@@ -24493,28 +24371,28 @@
     </row>
     <row r="107">
       <c r="A107" t="n" s="1292">
-        <v>10213.0</v>
+        <v>10215.0</v>
       </c>
       <c r="B107" t="n" s="1293">
-        <v>1.027704E7</v>
+        <v>9285227.0</v>
       </c>
       <c r="C107" t="s" s="1294">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D107" t="s" s="1295">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="E107" t="s" s="1296">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F107" t="s" s="1297">
         <v>127</v>
       </c>
       <c r="G107" t="n" s="1298">
-        <v>-0.5607739336003862</v>
+        <v>1.0171941972000345</v>
       </c>
       <c r="H107" t="n" s="1299">
-        <v>0.4627625825645366</v>
+        <v>0.5126109431279409</v>
       </c>
       <c r="I107" t="n" s="1300">
         <v>0.8579808987053142</v>
@@ -24522,28 +24400,28 @@
     </row>
     <row r="108">
       <c r="A108" t="n" s="1292">
-        <v>10215.0</v>
+        <v>10216.0</v>
       </c>
       <c r="B108" t="n" s="1293">
-        <v>9285227.0</v>
+        <v>1.027672E7</v>
       </c>
       <c r="C108" t="s" s="1294">
         <v>27</v>
       </c>
       <c r="D108" t="s" s="1295">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E108" t="s" s="1296">
         <v>30</v>
       </c>
       <c r="F108" t="s" s="1297">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G108" t="n" s="1298">
-        <v>1.0171941972000345</v>
+        <v>1.7552152238898662</v>
       </c>
       <c r="H108" t="n" s="1299">
-        <v>0.5126109431279409</v>
+        <v>0.49674595254975173</v>
       </c>
       <c r="I108" t="n" s="1300">
         <v>0.8579808987053142</v>
@@ -24551,28 +24429,28 @@
     </row>
     <row r="109">
       <c r="A109" t="n" s="1292">
-        <v>10216.0</v>
+        <v>10217.0</v>
       </c>
       <c r="B109" t="n" s="1293">
-        <v>1.027672E7</v>
+        <v>9805341.0</v>
       </c>
       <c r="C109" t="s" s="1294">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D109" t="s" s="1295">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E109" t="s" s="1296">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F109" t="s" s="1297">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G109" t="n" s="1298">
-        <v>1.7552152238898662</v>
+        <v>1.2745831746021241</v>
       </c>
       <c r="H109" t="n" s="1299">
-        <v>0.49674595254975173</v>
+        <v>0.5041606383649226</v>
       </c>
       <c r="I109" t="n" s="1300">
         <v>0.8579808987053142</v>
@@ -24580,28 +24458,28 @@
     </row>
     <row r="110">
       <c r="A110" t="n" s="1292">
-        <v>10217.0</v>
+        <v>10218.0</v>
       </c>
       <c r="B110" t="n" s="1293">
-        <v>9805341.0</v>
+        <v>9842913.0</v>
       </c>
       <c r="C110" t="s" s="1294">
         <v>28</v>
       </c>
       <c r="D110" t="s" s="1295">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E110" t="s" s="1296">
         <v>29</v>
       </c>
       <c r="F110" t="s" s="1297">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G110" t="n" s="1298">
-        <v>1.2745831746021241</v>
+        <v>0.4548622136164107</v>
       </c>
       <c r="H110" t="n" s="1299">
-        <v>0.5041606383649226</v>
+        <v>0.521441827263477</v>
       </c>
       <c r="I110" t="n" s="1300">
         <v>0.8579808987053142</v>
@@ -24609,28 +24487,28 @@
     </row>
     <row r="111">
       <c r="A111" t="n" s="1292">
-        <v>10218.0</v>
+        <v>10220.0</v>
       </c>
       <c r="B111" t="n" s="1293">
-        <v>9842913.0</v>
+        <v>9760151.0</v>
       </c>
       <c r="C111" t="s" s="1294">
         <v>28</v>
       </c>
       <c r="D111" t="s" s="1295">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E111" t="s" s="1296">
         <v>29</v>
       </c>
       <c r="F111" t="s" s="1297">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G111" t="n" s="1298">
-        <v>0.4548622136164107</v>
+        <v>-0.950851107942684</v>
       </c>
       <c r="H111" t="n" s="1299">
-        <v>0.521441827263477</v>
+        <v>0.44369855541753156</v>
       </c>
       <c r="I111" t="n" s="1300">
         <v>0.8579808987053142</v>
@@ -24638,28 +24516,28 @@
     </row>
     <row r="112">
       <c r="A112" t="n" s="1292">
-        <v>10220.0</v>
+        <v>10223.0</v>
       </c>
       <c r="B112" t="n" s="1293">
-        <v>9760151.0</v>
+        <v>9795185.0</v>
       </c>
       <c r="C112" t="s" s="1294">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D112" t="s" s="1295">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E112" t="s" s="1296">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F112" t="s" s="1297">
         <v>127</v>
       </c>
       <c r="G112" t="n" s="1298">
-        <v>-0.950851107942684</v>
+        <v>1.9906110408136475</v>
       </c>
       <c r="H112" t="n" s="1299">
-        <v>0.44369855541753156</v>
+        <v>0.5008514596790399</v>
       </c>
       <c r="I112" t="n" s="1300">
         <v>0.8579808987053142</v>
@@ -24667,28 +24545,28 @@
     </row>
     <row r="113">
       <c r="A113" t="n" s="1292">
-        <v>10223.0</v>
+        <v>10226.0</v>
       </c>
       <c r="B113" t="n" s="1293">
-        <v>9795185.0</v>
+        <v>1.0310342E7</v>
       </c>
       <c r="C113" t="s" s="1294">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D113" t="s" s="1295">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E113" t="s" s="1296">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F113" t="s" s="1297">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G113" t="n" s="1298">
-        <v>1.9906110408136475</v>
+        <v>-2.1650026403541154</v>
       </c>
       <c r="H113" t="n" s="1299">
-        <v>0.5008514596790399</v>
+        <v>0.5442763960239487</v>
       </c>
       <c r="I113" t="n" s="1300">
         <v>0.8579808987053142</v>
@@ -24696,28 +24574,28 @@
     </row>
     <row r="114">
       <c r="A114" t="n" s="1292">
-        <v>10226.0</v>
+        <v>10230.0</v>
       </c>
       <c r="B114" t="n" s="1293">
-        <v>1.0310342E7</v>
+        <v>1.0351992E7</v>
       </c>
       <c r="C114" t="s" s="1294">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D114" t="s" s="1295">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E114" t="s" s="1296">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F114" t="s" s="1297">
         <v>127</v>
       </c>
       <c r="G114" t="n" s="1298">
-        <v>-2.1650026403541154</v>
+        <v>1.2745831746021241</v>
       </c>
       <c r="H114" t="n" s="1299">
-        <v>0.5442763960239487</v>
+        <v>0.5041606383649226</v>
       </c>
       <c r="I114" t="n" s="1300">
         <v>0.8579808987053142</v>
@@ -24725,59 +24603,30 @@
     </row>
     <row r="115">
       <c r="A115" t="n" s="1292">
-        <v>10230.0</v>
+        <v>10232.0</v>
       </c>
       <c r="B115" t="n" s="1293">
-        <v>1.0351992E7</v>
+        <v>1.0276974E7</v>
       </c>
       <c r="C115" t="s" s="1294">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D115" t="s" s="1295">
+        <v>109</v>
+      </c>
+      <c r="E115" t="s" s="1296">
+        <v>29</v>
+      </c>
+      <c r="F115" t="s" s="1297">
         <v>126</v>
       </c>
-      <c r="E115" t="s" s="1296">
-        <v>30</v>
-      </c>
-      <c r="F115" t="s" s="1297">
-        <v>128</v>
-      </c>
       <c r="G115" t="n" s="1298">
-        <v>1.2745831746021241</v>
+        <v>1.0171941972000345</v>
       </c>
       <c r="H115" t="n" s="1299">
-        <v>0.5041606383649226</v>
+        <v>0.5126109431279409</v>
       </c>
       <c r="I115" t="n" s="1300">
-        <v>0.8579808987053142</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n" s="1292">
-        <v>10232.0</v>
-      </c>
-      <c r="B116" t="n" s="1293">
-        <v>1.0276974E7</v>
-      </c>
-      <c r="C116" t="s" s="1294">
-        <v>28</v>
-      </c>
-      <c r="D116" t="s" s="1295">
-        <v>109</v>
-      </c>
-      <c r="E116" t="s" s="1296">
-        <v>29</v>
-      </c>
-      <c r="F116" t="s" s="1297">
-        <v>127</v>
-      </c>
-      <c r="G116" t="n" s="1298">
-        <v>1.0171941972000345</v>
-      </c>
-      <c r="H116" t="n" s="1299">
-        <v>0.5126109431279409</v>
-      </c>
-      <c r="I116" t="n" s="1300">
         <v>0.8579808987053142</v>
       </c>
     </row>
